--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B689AB6-7039-4B63-B166-8B2234067D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12B294-6765-4263-A5A0-55CB39C5198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29564,8 +29564,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12B294-6765-4263-A5A0-55CB39C5198F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2ECCFE-3C5D-47FC-93F9-F69D5B0C7C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13876" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13876" uniqueCount="675">
   <si>
     <t>ID</t>
   </si>
@@ -2109,6 +2109,9 @@
   </si>
   <si>
     <t>Veranderen namespaces</t>
+  </si>
+  <si>
+    <t>De nummering van Artikelen begint met het nummer van het Hoofdstuk waarin het Artikel voorkomt, gevolgd door een punt, daarna oplopende nummering van de Artikelen in Arabische cijfers inclusief indien nodig een letter</t>
   </si>
 </sst>
 </file>
@@ -29563,9 +29566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BE904-3D15-4F6E-B5B9-2AD212EB1E09}">
   <dimension ref="A1:W217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32218,7 +32221,7 @@
         <v>547</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>674</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>123</v>
@@ -32688,7 +32691,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="49" t="s">
         <v>572</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -32754,7 +32757,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="31" t="s">
         <v>553</v>
       </c>
       <c r="C48" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2ECCFE-3C5D-47FC-93F9-F69D5B0C7C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917543DA-182D-4876-9D88-964850ECCB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -32825,7 +32825,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="31" t="s">
         <v>554</v>
       </c>
       <c r="C49" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917543DA-182D-4876-9D88-964850ECCB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC96CF5-8427-4EA5-9E1B-951228232087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29568,7 +29568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32893,7 +32893,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="49" t="s">
         <v>573</v>
       </c>
       <c r="C50" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC96CF5-8427-4EA5-9E1B-951228232087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B041FF-E5E0-4E98-8E96-99862F8367F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29568,7 +29568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32893,7 +32893,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="31" t="s">
         <v>573</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -32959,7 +32959,7 @@
       </c>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="31" t="s">
         <v>555</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -33027,7 +33027,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="31" t="s">
         <v>574</v>
       </c>
       <c r="C52" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B041FF-E5E0-4E98-8E96-99862F8367F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE03F7-A7F8-4E2E-892D-E1D654E93427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29567,8 +29567,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33093,7 +33093,7 @@
       </c>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="31" t="s">
         <v>556</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -33161,7 +33161,7 @@
       </c>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="31" t="s">
         <v>575</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -33227,7 +33227,7 @@
       </c>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="31" t="s">
         <v>576</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -33293,7 +33293,7 @@
       </c>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="31" t="s">
         <v>557</v>
       </c>
       <c r="C56" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE03F7-A7F8-4E2E-892D-E1D654E93427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0A0D2-9F7D-4403-B1BD-C607AFC9FB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13876" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13922" uniqueCount="680">
   <si>
     <t>ID</t>
   </si>
@@ -2113,12 +2113,56 @@
   <si>
     <t>De nummering van Artikelen begint met het nummer van het Hoofdstuk waarin het Artikel voorkomt, gevolgd door een punt, daarna oplopende nummering van de Artikelen in Arabische cijfers inclusief indien nodig een letter</t>
   </si>
+  <si>
+    <t>Ieder OwObject heeft minstens een OwObject dat ernaar verwijst.</t>
+  </si>
+  <si>
+    <t>TPOD2060</t>
+  </si>
+  <si>
+    <t>Als een verwijzing naar een Lid is gemaakt mag er geen verwijzing meer gemaakt worden naar het artikel dat boven dit Lid hangt. (RegeltekstID alleen op Lid-niveau of alleen op Artikel-niveau.)</t>
+  </si>
+  <si>
+    <t>TPOD2070</t>
+  </si>
+  <si>
+    <r>
+      <t>Als de activiteit een bepaalde regeltekstID heeft dan moet deze overeenkomen met de ID die je via de logische relaties vindt (regeltekst naar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> juridische regel (regel voor iedereen) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>naar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> activiteitaanduiding).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2186,8 +2230,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2227,6 +2283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,9 +2474,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2435,12 +2494,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="124">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -25156,247 +25228,247 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C169:F197 G167:H197 D198:D251 E198:E250 C198:C238 F198:H251 G252:H271 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J167:J271 L167:L271 L152 N152 N167:N271 P167:P271 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152">
-    <cfRule type="containsText" dxfId="122" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="121" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="120" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="119" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C271">
-    <cfRule type="containsText" dxfId="118" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:F168 D252:F271">
-    <cfRule type="containsText" dxfId="117" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251 E251">
-    <cfRule type="containsText" dxfId="116" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="containsText" dxfId="115" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="containsText" dxfId="114" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
-    <cfRule type="containsText" dxfId="113" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="112" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="containsText" dxfId="111" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="110" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="109" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="containsText" dxfId="108" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="containsText" dxfId="107" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="containsText" dxfId="105" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="104" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="103" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="102" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="101" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="100" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="99" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="98" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="97" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q167:Q271">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I167:I271">
-    <cfRule type="containsText" dxfId="91" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="89" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K167:K271 K152">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="87" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M167:M271">
-    <cfRule type="containsText" dxfId="85" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="83" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:O271 O152 O59:O126 O2:O48">
-    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="81" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V167:V271 T167:T271">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U167:U271">
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S167:S271">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R167:R271">
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R167)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29397,147 +29469,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O48">
-    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S48">
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29 A1:E27 A30:F48 G1:V1 G2:H48 J2:J48 L2:L48 N2:N48 P2:P48 R2:R48 T2:T48 V2:V48">
-    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="58" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48">
-    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K48">
-    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48">
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29567,8 +29639,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29586,7 +29658,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>672</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -29791,7 +29863,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>560</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -30533,7 +30605,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>530</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -30871,7 +30943,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>534</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -31277,7 +31349,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>539</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -31613,7 +31685,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>542</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -31949,7 +32021,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>545</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -32353,7 +32425,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="56" t="s">
         <v>549</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -36111,7 +36183,7 @@
       </c>
     </row>
     <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -36179,7 +36251,7 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="56" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -36862,11 +36934,11 @@
       </c>
     </row>
     <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="60" t="s">
         <v>641</v>
       </c>
-      <c r="C109" s="53" t="s">
-        <v>642</v>
+      <c r="C109" s="52" t="s">
+        <v>675</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>123</v>
@@ -36930,10 +37002,10 @@
       </c>
     </row>
     <row r="110" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="53" t="s">
         <v>662</v>
       </c>
       <c r="D110" s="32" t="s">
@@ -36998,7 +37070,7 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="58" t="s">
         <v>661</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -37066,7 +37138,7 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="59" t="s">
+      <c r="B112" s="58" t="s">
         <v>668</v>
       </c>
       <c r="C112" s="36" t="s">
@@ -37133,8 +37205,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B113" s="59" t="s">
+    <row r="113" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="58" t="s">
         <v>669</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -37201,8 +37273,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="59" t="s">
+    <row r="114" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="58" t="s">
         <v>670</v>
       </c>
       <c r="C114" s="36" t="s">
@@ -37269,11 +37341,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="54" t="s">
         <v>660</v>
       </c>
       <c r="D115" s="32" t="s">
@@ -37337,43 +37409,179 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B116" s="45"/>
-    </row>
-    <row r="117" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B117" s="45"/>
-    </row>
-    <row r="118" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" s="26" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="C116" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W116" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>678</v>
+      </c>
+      <c r="C117" s="54" t="s">
+        <v>679</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W117" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="45"/>
     </row>
-    <row r="119" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="45"/>
     </row>
-    <row r="120" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="45"/>
     </row>
-    <row r="121" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="45"/>
     </row>
-    <row r="122" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="45"/>
     </row>
-    <row r="123" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="45"/>
     </row>
-    <row r="124" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="45"/>
     </row>
-    <row r="125" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="45"/>
     </row>
-    <row r="126" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="45"/>
     </row>
-    <row r="127" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="45"/>
     </row>
-    <row r="128" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="45"/>
     </row>
     <row r="129" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
@@ -37645,63 +37853,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B96:I96 B2:I69">
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T95 T2:T69">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V69 V95">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1 H1:W1">
-    <cfRule type="containsText" dxfId="41" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202 B116:B176">
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B116)))</formula>
+  <conditionalFormatting sqref="B202 B118:B176">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K69 M2:M69 O2:O69 K95 M95 O95 Q95 Q2:Q69 S2:S69 S95 U95 U2:U69 W2:W69 W95">
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R69 R95">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J69 J95">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L69 L95">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N69 N95">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P95 P2:P69">
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:A117">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -44956,137 +45169,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F32 D33:D86 E33:E85 C33:C73 G2:H32 F33:H86 G87:H106 V2:V106 T2:T106 R2:R106">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C106">
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F3 D87:F106">
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 E86">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U106">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S106">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q106">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J106 L2:L106 N2:N106 P2:P106">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I106">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K106">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M106">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O106">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45943,17 +46156,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48092,17 +48305,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE03F7-A7F8-4E2E-892D-E1D654E93427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{803806EA-9882-4ED2-A115-5EC6462904C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13876" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13920" uniqueCount="680">
   <si>
     <t>ID</t>
   </si>
@@ -2079,20 +2079,6 @@
     <t>het id van FormeleDivisie in OW moet verwijzen naar een bestaande id van een FormeleDivisie in OP</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>TPOD2000</t>
-    </r>
-  </si>
-  <si>
     <t>TPOD2020</t>
   </si>
   <si>
@@ -2112,6 +2098,24 @@
   </si>
   <si>
     <t>De nummering van Artikelen begint met het nummer van het Hoofdstuk waarin het Artikel voorkomt, gevolgd door een punt, daarna oplopende nummering van de Artikelen in Arabische cijfers inclusief indien nodig een letter</t>
+  </si>
+  <si>
+    <t>TPOD2000</t>
+  </si>
+  <si>
+    <t>TPOD2060</t>
+  </si>
+  <si>
+    <t>TPOD2070</t>
+  </si>
+  <si>
+    <t>Als een verwijzing naar een Lid is gemaakt mag er geen verwijzing meer gemaakt worden naar het artikel dat boven dit Lid hangt.</t>
+  </si>
+  <si>
+    <t>Als de activiteit een bepaalde regeltekstID heeft dan moet deze overeenkomen met de ID die je via de logische relaties vindt.</t>
+  </si>
+  <si>
+    <t>Ieder OwObject heeft minstens een OwObject dat ernaar verwijst.</t>
   </si>
 </sst>
 </file>
@@ -2180,8 +2184,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2428,13 +2431,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -29567,8 +29568,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29586,8 +29587,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>672</v>
+      <c r="A1" s="59" t="s">
+        <v>671</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -29657,7 +29658,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="49" t="s">
         <v>559</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -32221,7 +32222,7 @@
         <v>547</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>123</v>
@@ -36384,7 +36385,7 @@
     </row>
     <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>407</v>
@@ -36866,7 +36867,7 @@
         <v>641</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>123</v>
@@ -36929,9 +36930,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="58" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C110" s="54" t="s">
         <v>662</v>
@@ -36998,7 +36999,7 @@
       </c>
     </row>
     <row r="111" spans="1:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="58" t="s">
         <v>661</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -37066,8 +37067,8 @@
       </c>
     </row>
     <row r="112" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="59" t="s">
-        <v>668</v>
+      <c r="B112" s="58" t="s">
+        <v>667</v>
       </c>
       <c r="C112" s="36" t="s">
         <v>664</v>
@@ -37134,8 +37135,8 @@
       </c>
     </row>
     <row r="113" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B113" s="59" t="s">
-        <v>669</v>
+      <c r="B113" s="58" t="s">
+        <v>668</v>
       </c>
       <c r="C113" s="36" t="s">
         <v>665</v>
@@ -37202,8 +37203,8 @@
       </c>
     </row>
     <row r="114" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="59" t="s">
-        <v>670</v>
+      <c r="B114" s="58" t="s">
+        <v>669</v>
       </c>
       <c r="C114" s="36" t="s">
         <v>666</v>
@@ -37271,7 +37272,7 @@
     </row>
     <row r="115" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C115" s="55" t="s">
         <v>660</v>
@@ -37337,11 +37338,141 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B116" s="45"/>
-    </row>
-    <row r="117" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B117" s="45"/>
+    <row r="116" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C116" s="60" t="s">
+        <v>677</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U116" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V116" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W116" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>678</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S117" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U117" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V117" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W117" s="19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="45"/>
@@ -37669,9 +37800,9 @@
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202 B116:B176">
+  <conditionalFormatting sqref="B202 B118:B176">
     <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B116)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K69 M2:M69 O2:O69 K95 M95 O95 Q95 Q2:Q69 S2:S69 S95 U95 U2:U69 W2:W69 W95">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB17354-87D8-4711-BB67-9C5C0721E4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FC12B-3DC8-4B7A-BD9D-BDE13B30F37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -29568,8 +29568,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33632,7 +33632,7 @@
       </c>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="49" t="s">
         <v>578</v>
       </c>
       <c r="C61" s="2" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FC12B-3DC8-4B7A-BD9D-BDE13B30F37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C4FC2-E970-4440-8603-4B736ED70E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3998,7 +3999,7 @@
   <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A283" sqref="A283:V312"/>
     </sheetView>
   </sheetViews>
@@ -29568,8 +29569,8 @@
   <dimension ref="A1:W217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29581,7 +29582,7 @@
     <col min="6" max="6" width="8.21875" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="4.5546875" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="16" width="9.33203125" style="20" customWidth="1"/>
     <col min="17" max="23" width="9.33203125" customWidth="1"/>
   </cols>
@@ -37339,7 +37340,7 @@
       </c>
     </row>
     <row r="116" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="31" t="s">
         <v>675</v>
       </c>
       <c r="C116" s="60" t="s">
@@ -37407,7 +37408,7 @@
       </c>
     </row>
     <row r="117" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="31" t="s">
         <v>676</v>
       </c>
       <c r="C117" s="60" t="s">
@@ -37861,9 +37862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2774F8D-7807-4788-A7D2-76E0B1EC35EB}">
   <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="I1:V1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C4FC2-E970-4440-8603-4B736ED70E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB09E9D-670F-4AAA-A66D-0BD194BC049A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="18552" windowHeight="11028" activeTab="2" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13920" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14052" uniqueCount="693">
   <si>
     <t>ID</t>
   </si>
@@ -2117,6 +2116,45 @@
   </si>
   <si>
     <t>Ieder OwObject heeft minstens een OwObject dat ernaar verwijst.</t>
+  </si>
+  <si>
+    <t>TPOD2080</t>
+  </si>
+  <si>
+    <t>Binnen een instructieregel dient er gekozen te worden tussen InstructieregelInstrument of InstructieregelTaakuitoefening (één van de twee moet voorkomen, niet meer, niet minder).</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>TPOD2090</t>
+  </si>
+  <si>
+    <t>Alle normwaarden van een norm moeten hetzelfde type zijn (kwalitatief, kwantitatief, of waardeInRegeltekst).</t>
+  </si>
+  <si>
+    <t>TPOD2100</t>
+  </si>
+  <si>
+    <t>Eenheid mag alleen voorkomen bij een Norm die kwantitatieve normwaarden heeft</t>
+  </si>
+  <si>
+    <t>TPOD2110</t>
+  </si>
+  <si>
+    <t>Idealisatie is verplicht als Tekstdeel een locatie heeft</t>
+  </si>
+  <si>
+    <t>TPOD2120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iedere OW-identificatie dient uniek te zijn </t>
+  </si>
+  <si>
+    <t>TPOD2130</t>
+  </si>
+  <si>
+    <t>Iedere OW-identificatie dient slechts 1 keer voor te komen per aanlevering (c.q. je mag niet binnen dezelfde aanlevering een ID aanmaken, en vervolgens het ID wijzigen).</t>
   </si>
 </sst>
 </file>
@@ -2442,7 +2480,17 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="124">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -25158,247 +25206,247 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C169:F197 G167:H197 D198:D251 E198:E250 C198:C238 F198:H251 G252:H271 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J167:J271 L167:L271 L152 N152 N167:N271 P167:P271 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152">
-    <cfRule type="containsText" dxfId="122" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="121" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="120" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="119" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C271">
-    <cfRule type="containsText" dxfId="118" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:F168 D252:F271">
-    <cfRule type="containsText" dxfId="117" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251 E251">
-    <cfRule type="containsText" dxfId="116" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="containsText" dxfId="115" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="containsText" dxfId="114" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
-    <cfRule type="containsText" dxfId="113" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="112" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="containsText" dxfId="111" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="110" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="109" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="containsText" dxfId="108" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="containsText" dxfId="107" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="containsText" dxfId="105" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="104" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="103" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="102" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="101" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="100" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="99" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="98" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="97" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="94" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="93" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q167:Q271">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I167:I271">
-    <cfRule type="containsText" dxfId="91" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="89" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K167:K271 K152">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="87" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="86" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M167:M271">
-    <cfRule type="containsText" dxfId="85" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="83" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:O271 O152 O59:O126 O2:O48">
-    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="81" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V167:V271 T167:T271">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U167:U271">
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S167:S271">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R167:R271">
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R167)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29399,147 +29447,147 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O2:O48">
-    <cfRule type="containsText" dxfId="73" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S48">
-    <cfRule type="containsText" dxfId="71" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="70" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="66" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="64" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A29 A1:E27 A30:F48 G1:V1 G2:H48 J2:J48 L2:L48 N2:N48 P2:P48 R2:R48 T2:T48 V2:V48">
-    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="62" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="58" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="56" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48">
-    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K48">
-    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48">
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29568,9 +29616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BE904-3D15-4F6E-B5B9-2AD212EB1E09}">
   <dimension ref="A1:W217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -37475,23 +37523,413 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B118" s="45"/>
-    </row>
-    <row r="119" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B119" s="45"/>
-    </row>
-    <row r="120" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B120" s="45"/>
-    </row>
-    <row r="121" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B121" s="45"/>
-    </row>
-    <row r="122" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B122" s="45"/>
-    </row>
-    <row r="123" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B123" s="45"/>
+    <row r="118" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M118" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O118" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q118" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S118" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U118" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V118" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W118" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M119" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O119" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q119" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S119" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U119" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V119" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W119" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M120" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O120" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q120" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S120" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U120" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V120" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W120" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K121" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M121" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O121" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q121" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S121" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U121" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V121" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W121" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C122" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M122" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O122" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q122" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S122" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U122" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V122" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W122" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C123" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M123" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="O123" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q123" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="S123" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="U123" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="V123" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W123" s="19" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="124" spans="2:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="45"/>
@@ -37777,63 +38215,68 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B96:I96 B2:I69">
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T95 T2:T69">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V69 V95">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1 H1:W1">
-    <cfRule type="containsText" dxfId="41" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202 B118:B176">
-    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="&lt;?&gt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B118)))</formula>
+  <conditionalFormatting sqref="B202 B124:B176">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K69 M2:M69 O2:O69 K95 M95 O95 Q95 Q2:Q69 S2:S69 S95 U95 U2:U69 W2:W69 W95">
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R69 R95">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J69 J95">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L69 L95">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N69 N95">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P95 P2:P69">
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118:B123">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -45088,137 +45531,137 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F32 D33:D86 E33:E85 C33:C73 G2:H32 F33:H86 G87:H106 V2:V106 T2:T106 R2:R106">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C106">
-    <cfRule type="containsText" dxfId="29" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:F3 D87:F106">
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 E86">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U106">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S106">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q106">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J106 L2:L106 N2:N106 P2:P106">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I106">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K106">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M106">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O106">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46075,17 +46518,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48224,17 +48667,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1 G1:H1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:V1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E170EE-850C-4895-99F7-B6D9A0F53CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605BD87-8B1E-4BF1-BFA5-3DFC50072D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TPOD!$A$1:$Y$122</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2757,27 +2760,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3714,7 +3697,7 @@
   <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -24873,247 +24856,247 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C169:F197 G167:H197 D198:D251 E198:E250 C198:C238 F198:H251 G252:H271 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J167:J271 L167:L271 L152 N152 N167:N271 P167:P271 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252:C271">
-    <cfRule type="containsText" dxfId="58" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:F168 D252:F271">
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251 E251">
-    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C240)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C241)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C242)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q167:Q271">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I167:I271">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K167:K271 K152">
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M167:M271">
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O167:O271 O152 O59:O126 O2:O48">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V167:V271 T167:T271">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U167:U271">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S167:S271">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S167)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R167:R271">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R167)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25153,8 +25136,8 @@
   <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -34563,53 +34546,54 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y122" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
   <conditionalFormatting sqref="M2:M69 O2:O69 Q2:Q69 M95 O95 Q95 S95 S2:S69 U2:U69 U95 W95 W2:W69 Y2:Y69 Y95 A2:A122">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N69 N95">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L69 L95">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:K96 D2:K69">
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y1">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R95 R2:R69">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T69 T95">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V95 V2:V69">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X69 X95">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P69 P95">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605BD87-8B1E-4BF1-BFA5-3DFC50072D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96094B-C4DB-46E0-88CB-47774AA5E510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -2099,9 +2099,6 @@
     <t>TPOD2070</t>
   </si>
   <si>
-    <t>Als een verwijzing naar een Lid is gemaakt mag er geen verwijzing meer gemaakt worden naar het artikel dat boven dit Lid hangt.</t>
-  </si>
-  <si>
     <t>TPOD2080</t>
   </si>
   <si>
@@ -2283,6 +2280,9 @@
   </si>
   <si>
     <t>Er zijn niet meerdere locaties die naar 1 geometrie verwijzen (altijd 1 locatie per geometrie).</t>
+  </si>
+  <si>
+    <t>Als er gebruik gemaakt wordt van Leden, dan mag er niet verwezen worden naar het Artikel, maar alleen naar de leden. (Er mag in dit geval geen regeltekst-object zijn van het Artikel, maar alleen van de leden.)</t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2381,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2415,6 +2415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2583,7 +2589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2754,6 +2760,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25136,8 +25145,8 @@
   <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25153,10 +25162,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>686</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>687</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>1</v>
@@ -25180,146 +25189,146 @@
         <v>6</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>701</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>702</v>
-      </c>
-      <c r="Y1" s="41" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>559</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J2" s="47" t="s">
+        <v>706</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="51" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>708</v>
-      </c>
       <c r="W2" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X2" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>521</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>127</v>
@@ -25331,11 +25340,11 @@
         <v>135</v>
       </c>
       <c r="I3" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K3" s="48" t="s">
         <v>644</v>
       </c>
@@ -25370,21 +25379,21 @@
         <v>134</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W3" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X3" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>560</v>
@@ -25396,22 +25405,22 @@
         <v>130</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>644</v>
@@ -25447,33 +25456,33 @@
         <v>134</v>
       </c>
       <c r="V4" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X4" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>522</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>127</v>
@@ -25485,10 +25494,10 @@
         <v>135</v>
       </c>
       <c r="I5" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>710</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>711</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>644</v>
@@ -25538,19 +25547,19 @@
     </row>
     <row r="6" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>523</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>127</v>
@@ -25562,10 +25571,10 @@
         <v>135</v>
       </c>
       <c r="I6" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>710</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>711</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>644</v>
@@ -25615,19 +25624,19 @@
     </row>
     <row r="7" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>524</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>127</v>
@@ -25639,11 +25648,11 @@
         <v>135</v>
       </c>
       <c r="I7" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K7" s="48" t="s">
         <v>644</v>
       </c>
@@ -25678,33 +25687,33 @@
         <v>134</v>
       </c>
       <c r="V7" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W7" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X7" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y7" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>525</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>127</v>
@@ -25716,11 +25725,11 @@
         <v>135</v>
       </c>
       <c r="I8" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K8" s="48" t="s">
         <v>644</v>
       </c>
@@ -25755,21 +25764,21 @@
         <v>134</v>
       </c>
       <c r="V8" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W8" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X8" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>569</v>
@@ -25781,22 +25790,22 @@
         <v>130</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>644</v>
@@ -25832,21 +25841,21 @@
         <v>134</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W9" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X9" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>528</v>
@@ -25858,7 +25867,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>127</v>
@@ -25870,11 +25879,11 @@
         <v>135</v>
       </c>
       <c r="I10" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K10" s="48" t="s">
         <v>644</v>
       </c>
@@ -25909,21 +25918,21 @@
         <v>134</v>
       </c>
       <c r="V10" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W10" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X10" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>561</v>
@@ -25935,22 +25944,22 @@
         <v>130</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>644</v>
@@ -25986,21 +25995,21 @@
         <v>134</v>
       </c>
       <c r="V11" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W11" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X11" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y11" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>526</v>
@@ -26012,7 +26021,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>127</v>
@@ -26024,11 +26033,11 @@
         <v>135</v>
       </c>
       <c r="I12" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K12" s="48" t="s">
         <v>644</v>
       </c>
@@ -26063,21 +26072,21 @@
         <v>134</v>
       </c>
       <c r="V12" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W12" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X12" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y12" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>527</v>
@@ -26089,7 +26098,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>127</v>
@@ -26101,11 +26110,11 @@
         <v>135</v>
       </c>
       <c r="I13" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J13" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J13" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K13" s="48" t="s">
         <v>644</v>
       </c>
@@ -26140,21 +26149,21 @@
         <v>134</v>
       </c>
       <c r="V13" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W13" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X13" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y13" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>529</v>
@@ -26166,7 +26175,7 @@
         <v>123</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>127</v>
@@ -26178,11 +26187,11 @@
         <v>135</v>
       </c>
       <c r="I14" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J14" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K14" s="48" t="s">
         <v>644</v>
       </c>
@@ -26217,33 +26226,33 @@
         <v>134</v>
       </c>
       <c r="V14" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W14" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X14" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y14" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>530</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>127</v>
@@ -26255,11 +26264,11 @@
         <v>135</v>
       </c>
       <c r="I15" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J15" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J15" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K15" s="48" t="s">
         <v>644</v>
       </c>
@@ -26294,21 +26303,21 @@
         <v>134</v>
       </c>
       <c r="V15" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W15" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X15" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y15" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>570</v>
@@ -26320,22 +26329,22 @@
         <v>130</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F16" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K16" s="48" t="s">
         <v>644</v>
@@ -26371,21 +26380,21 @@
         <v>134</v>
       </c>
       <c r="V16" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W16" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X16" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y16" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>531</v>
@@ -26397,7 +26406,7 @@
         <v>123</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>127</v>
@@ -26409,11 +26418,11 @@
         <v>135</v>
       </c>
       <c r="I17" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J17" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K17" s="48" t="s">
         <v>644</v>
       </c>
@@ -26448,21 +26457,21 @@
         <v>134</v>
       </c>
       <c r="V17" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W17" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X17" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y17" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>532</v>
@@ -26474,7 +26483,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F18" s="53" t="s">
         <v>127</v>
@@ -26486,11 +26495,11 @@
         <v>135</v>
       </c>
       <c r="I18" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J18" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K18" s="48" t="s">
         <v>644</v>
       </c>
@@ -26525,21 +26534,21 @@
         <v>134</v>
       </c>
       <c r="V18" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W18" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X18" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y18" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>533</v>
@@ -26551,7 +26560,7 @@
         <v>123</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F19" s="53" t="s">
         <v>127</v>
@@ -26563,11 +26572,11 @@
         <v>135</v>
       </c>
       <c r="I19" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J19" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J19" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K19" s="48" t="s">
         <v>644</v>
       </c>
@@ -26602,21 +26611,21 @@
         <v>134</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W19" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X19" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y19" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>534</v>
@@ -26628,7 +26637,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F20" s="53" t="s">
         <v>127</v>
@@ -26640,11 +26649,11 @@
         <v>135</v>
       </c>
       <c r="I20" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K20" s="48" t="s">
         <v>644</v>
       </c>
@@ -26679,21 +26688,21 @@
         <v>134</v>
       </c>
       <c r="V20" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W20" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X20" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y20" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>535</v>
@@ -26705,7 +26714,7 @@
         <v>123</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F21" s="53" t="s">
         <v>127</v>
@@ -26717,11 +26726,11 @@
         <v>135</v>
       </c>
       <c r="I21" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J21" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K21" s="48" t="s">
         <v>644</v>
       </c>
@@ -26756,21 +26765,21 @@
         <v>134</v>
       </c>
       <c r="V21" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W21" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X21" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y21" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>562</v>
@@ -26782,22 +26791,22 @@
         <v>130</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K22" s="48" t="s">
         <v>644</v>
@@ -26833,21 +26842,21 @@
         <v>134</v>
       </c>
       <c r="V22" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W22" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y22" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>536</v>
@@ -26859,7 +26868,7 @@
         <v>123</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>127</v>
@@ -26871,11 +26880,11 @@
         <v>135</v>
       </c>
       <c r="I23" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J23" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K23" s="48" t="s">
         <v>644</v>
       </c>
@@ -26910,21 +26919,21 @@
         <v>134</v>
       </c>
       <c r="V23" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W23" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X23" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y23" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>537</v>
@@ -26936,7 +26945,7 @@
         <v>123</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>127</v>
@@ -26948,11 +26957,11 @@
         <v>135</v>
       </c>
       <c r="I24" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J24" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J24" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K24" s="48" t="s">
         <v>644</v>
       </c>
@@ -26987,21 +26996,21 @@
         <v>134</v>
       </c>
       <c r="V24" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W24" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X24" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y24" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>538</v>
@@ -27013,7 +27022,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>127</v>
@@ -27025,11 +27034,11 @@
         <v>135</v>
       </c>
       <c r="I25" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J25" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J25" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K25" s="48" t="s">
         <v>644</v>
       </c>
@@ -27064,21 +27073,21 @@
         <v>134</v>
       </c>
       <c r="V25" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W25" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X25" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y25" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>539</v>
@@ -27090,7 +27099,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>127</v>
@@ -27102,11 +27111,11 @@
         <v>135</v>
       </c>
       <c r="I26" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J26" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J26" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K26" s="48" t="s">
         <v>644</v>
       </c>
@@ -27141,21 +27150,21 @@
         <v>134</v>
       </c>
       <c r="V26" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W26" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X26" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y26" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>563</v>
@@ -27167,22 +27176,22 @@
         <v>130</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K27" s="48" t="s">
         <v>644</v>
@@ -27218,21 +27227,21 @@
         <v>134</v>
       </c>
       <c r="V27" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W27" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X27" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y27" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>564</v>
@@ -27244,22 +27253,22 @@
         <v>130</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H28" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K28" s="48" t="s">
         <v>644</v>
@@ -27295,21 +27304,21 @@
         <v>134</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W28" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>540</v>
@@ -27321,7 +27330,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>127</v>
@@ -27333,11 +27342,11 @@
         <v>135</v>
       </c>
       <c r="I29" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J29" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J29" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K29" s="48" t="s">
         <v>644</v>
       </c>
@@ -27372,21 +27381,21 @@
         <v>134</v>
       </c>
       <c r="V29" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W29" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>541</v>
@@ -27398,7 +27407,7 @@
         <v>123</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>127</v>
@@ -27410,11 +27419,11 @@
         <v>135</v>
       </c>
       <c r="I30" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J30" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J30" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K30" s="48" t="s">
         <v>644</v>
       </c>
@@ -27449,21 +27458,21 @@
         <v>134</v>
       </c>
       <c r="V30" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W30" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X30" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>542</v>
@@ -27475,7 +27484,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>127</v>
@@ -27487,11 +27496,11 @@
         <v>135</v>
       </c>
       <c r="I31" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J31" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J31" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K31" s="48" t="s">
         <v>644</v>
       </c>
@@ -27526,21 +27535,21 @@
         <v>134</v>
       </c>
       <c r="V31" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W31" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X31" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>565</v>
@@ -27552,22 +27561,22 @@
         <v>130</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J32" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K32" s="48" t="s">
         <v>644</v>
@@ -27603,21 +27612,21 @@
         <v>134</v>
       </c>
       <c r="V32" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W32" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X32" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>566</v>
@@ -27629,22 +27638,22 @@
         <v>130</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J33" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K33" s="48" t="s">
         <v>644</v>
@@ -27680,21 +27689,21 @@
         <v>134</v>
       </c>
       <c r="V33" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W33" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X33" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y33" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>543</v>
@@ -27706,7 +27715,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>127</v>
@@ -27718,11 +27727,11 @@
         <v>135</v>
       </c>
       <c r="I34" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J34" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J34" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K34" s="48" t="s">
         <v>644</v>
       </c>
@@ -27757,21 +27766,21 @@
         <v>134</v>
       </c>
       <c r="V34" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W34" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X34" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y34" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>544</v>
@@ -27783,7 +27792,7 @@
         <v>123</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>127</v>
@@ -27795,11 +27804,11 @@
         <v>135</v>
       </c>
       <c r="I35" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J35" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J35" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K35" s="48" t="s">
         <v>644</v>
       </c>
@@ -27834,21 +27843,21 @@
         <v>134</v>
       </c>
       <c r="V35" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W35" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X35" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y35" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>545</v>
@@ -27860,7 +27869,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>127</v>
@@ -27872,11 +27881,11 @@
         <v>135</v>
       </c>
       <c r="I36" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J36" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J36" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K36" s="48" t="s">
         <v>644</v>
       </c>
@@ -27911,21 +27920,21 @@
         <v>134</v>
       </c>
       <c r="V36" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W36" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X36" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y36" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>567</v>
@@ -27937,22 +27946,22 @@
         <v>130</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K37" s="48" t="s">
         <v>644</v>
@@ -27988,21 +27997,21 @@
         <v>134</v>
       </c>
       <c r="V37" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W37" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X37" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y37" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>568</v>
@@ -28014,22 +28023,22 @@
         <v>130</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H38" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K38" s="48" t="s">
         <v>644</v>
@@ -28065,21 +28074,21 @@
         <v>134</v>
       </c>
       <c r="V38" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W38" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X38" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y38" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>546</v>
@@ -28091,7 +28100,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>127</v>
@@ -28103,11 +28112,11 @@
         <v>135</v>
       </c>
       <c r="I39" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J39" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J39" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K39" s="48" t="s">
         <v>644</v>
       </c>
@@ -28142,21 +28151,21 @@
         <v>134</v>
       </c>
       <c r="V39" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W39" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X39" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y39" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>547</v>
@@ -28168,7 +28177,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F40" s="44" t="s">
         <v>127</v>
@@ -28180,11 +28189,11 @@
         <v>135</v>
       </c>
       <c r="I40" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J40" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J40" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K40" s="48" t="s">
         <v>644</v>
       </c>
@@ -28219,21 +28228,21 @@
         <v>644</v>
       </c>
       <c r="V40" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W40" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X40" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y40" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>548</v>
@@ -28245,7 +28254,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F41" s="44" t="s">
         <v>127</v>
@@ -28257,11 +28266,11 @@
         <v>135</v>
       </c>
       <c r="I41" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J41" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J41" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K41" s="48" t="s">
         <v>644</v>
       </c>
@@ -28296,21 +28305,21 @@
         <v>134</v>
       </c>
       <c r="V41" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W41" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X41" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y41" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>549</v>
@@ -28322,7 +28331,7 @@
         <v>123</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>127</v>
@@ -28334,11 +28343,11 @@
         <v>135</v>
       </c>
       <c r="I42" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J42" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J42" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K42" s="48" t="s">
         <v>644</v>
       </c>
@@ -28373,21 +28382,21 @@
         <v>134</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W42" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X42" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y42" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>550</v>
@@ -28399,7 +28408,7 @@
         <v>123</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>127</v>
@@ -28411,11 +28420,11 @@
         <v>135</v>
       </c>
       <c r="I43" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J43" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J43" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K43" s="48" t="s">
         <v>644</v>
       </c>
@@ -28450,21 +28459,21 @@
         <v>134</v>
       </c>
       <c r="V43" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W43" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X43" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y43" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>571</v>
@@ -28476,22 +28485,22 @@
         <v>130</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F44" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K44" s="48" t="s">
         <v>644</v>
@@ -28527,21 +28536,21 @@
         <v>644</v>
       </c>
       <c r="V44" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W44" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X44" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y44" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>551</v>
@@ -28553,7 +28562,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F45" s="53" t="s">
         <v>127</v>
@@ -28565,11 +28574,11 @@
         <v>135</v>
       </c>
       <c r="I45" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J45" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J45" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K45" s="48" t="s">
         <v>644</v>
       </c>
@@ -28604,21 +28613,21 @@
         <v>134</v>
       </c>
       <c r="V45" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W45" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X45" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y45" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>552</v>
@@ -28630,7 +28639,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F46" s="53" t="s">
         <v>127</v>
@@ -28642,11 +28651,11 @@
         <v>135</v>
       </c>
       <c r="I46" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J46" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J46" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K46" s="48" t="s">
         <v>644</v>
       </c>
@@ -28681,48 +28690,48 @@
         <v>134</v>
       </c>
       <c r="V46" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W46" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X46" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y46" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>572</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D47" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F47" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H47" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I47" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K47" s="48" t="s">
         <v>644</v>
@@ -28758,21 +28767,21 @@
         <v>134</v>
       </c>
       <c r="V47" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W47" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X47" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y47" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>553</v>
@@ -28784,7 +28793,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F48" s="53" t="s">
         <v>127</v>
@@ -28796,11 +28805,11 @@
         <v>135</v>
       </c>
       <c r="I48" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J48" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J48" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K48" s="48" t="s">
         <v>644</v>
       </c>
@@ -28835,21 +28844,21 @@
         <v>134</v>
       </c>
       <c r="V48" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W48" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X48" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y48" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>554</v>
@@ -28861,7 +28870,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F49" s="53" t="s">
         <v>127</v>
@@ -28873,11 +28882,11 @@
         <v>135</v>
       </c>
       <c r="I49" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J49" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J49" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K49" s="48" t="s">
         <v>644</v>
       </c>
@@ -28912,21 +28921,21 @@
         <v>134</v>
       </c>
       <c r="V49" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W49" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X49" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y49" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>573</v>
@@ -28938,22 +28947,22 @@
         <v>130</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F50" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J50" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K50" s="48" t="s">
         <v>644</v>
@@ -28989,21 +28998,21 @@
         <v>644</v>
       </c>
       <c r="V50" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W50" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X50" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y50" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>555</v>
@@ -29015,7 +29024,7 @@
         <v>123</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F51" s="53" t="s">
         <v>127</v>
@@ -29027,11 +29036,11 @@
         <v>135</v>
       </c>
       <c r="I51" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J51" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J51" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K51" s="48" t="s">
         <v>644</v>
       </c>
@@ -29066,21 +29075,21 @@
         <v>134</v>
       </c>
       <c r="V51" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W51" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X51" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y51" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>574</v>
@@ -29092,22 +29101,22 @@
         <v>130</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F52" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H52" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K52" s="48" t="s">
         <v>644</v>
@@ -29143,21 +29152,21 @@
         <v>644</v>
       </c>
       <c r="V52" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W52" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X52" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y52" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>556</v>
@@ -29169,7 +29178,7 @@
         <v>123</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F53" s="53" t="s">
         <v>127</v>
@@ -29181,11 +29190,11 @@
         <v>135</v>
       </c>
       <c r="I53" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J53" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J53" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K53" s="48" t="s">
         <v>644</v>
       </c>
@@ -29220,21 +29229,21 @@
         <v>134</v>
       </c>
       <c r="V53" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W53" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X53" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y53" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>575</v>
@@ -29246,22 +29255,22 @@
         <v>130</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F54" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H54" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I54" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J54" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K54" s="48" t="s">
         <v>644</v>
@@ -29297,21 +29306,21 @@
         <v>644</v>
       </c>
       <c r="V54" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W54" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X54" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y54" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>576</v>
@@ -29323,22 +29332,22 @@
         <v>130</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F55" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H55" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J55" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K55" s="48" t="s">
         <v>644</v>
@@ -29374,21 +29383,21 @@
         <v>134</v>
       </c>
       <c r="V55" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W55" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X55" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y55" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>557</v>
@@ -29400,7 +29409,7 @@
         <v>123</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F56" s="53" t="s">
         <v>127</v>
@@ -29412,11 +29421,11 @@
         <v>135</v>
       </c>
       <c r="I56" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J56" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J56" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K56" s="48" t="s">
         <v>644</v>
       </c>
@@ -29451,33 +29460,33 @@
         <v>134</v>
       </c>
       <c r="V56" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W56" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X56" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y56" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>558</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D57" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F57" s="53" t="s">
         <v>127</v>
@@ -29489,11 +29498,11 @@
         <v>135</v>
       </c>
       <c r="I57" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J57" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J57" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K57" s="48" t="s">
         <v>644</v>
       </c>
@@ -29528,21 +29537,21 @@
         <v>134</v>
       </c>
       <c r="V57" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W57" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X57" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y57" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>519</v>
@@ -29554,7 +29563,7 @@
         <v>123</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F58" s="54" t="s">
         <v>205</v>
@@ -29566,10 +29575,10 @@
         <v>135</v>
       </c>
       <c r="I58" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K58" s="48" t="s">
         <v>644</v>
@@ -29619,7 +29628,7 @@
     </row>
     <row r="59" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>520</v>
@@ -29631,7 +29640,7 @@
         <v>123</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F59" s="54" t="s">
         <v>205</v>
@@ -29643,10 +29652,10 @@
         <v>135</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J59" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K59" s="48" t="s">
         <v>644</v>
@@ -29696,7 +29705,7 @@
     </row>
     <row r="60" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>577</v>
@@ -29708,22 +29717,22 @@
         <v>130</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H60" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>644</v>
@@ -29759,21 +29768,21 @@
         <v>134</v>
       </c>
       <c r="V60" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W60" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X60" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y60" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>578</v>
@@ -29785,22 +29794,22 @@
         <v>130</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F61" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K61" s="48" t="s">
         <v>644</v>
@@ -29836,21 +29845,21 @@
         <v>134</v>
       </c>
       <c r="V61" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W61" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X61" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y61" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>99</v>
@@ -29862,22 +29871,22 @@
         <v>130</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F62" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I62" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K62" s="48" t="s">
         <v>644</v>
@@ -29913,21 +29922,21 @@
         <v>134</v>
       </c>
       <c r="V62" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W62" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X62" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y62" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>101</v>
@@ -29939,22 +29948,22 @@
         <v>130</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I63" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J63" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K63" s="48" t="s">
         <v>644</v>
@@ -29990,21 +29999,21 @@
         <v>134</v>
       </c>
       <c r="V63" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W63" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X63" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y63" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>103</v>
@@ -30016,22 +30025,22 @@
         <v>130</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F64" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I64" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K64" s="48" t="s">
         <v>644</v>
@@ -30067,21 +30076,21 @@
         <v>134</v>
       </c>
       <c r="V64" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W64" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X64" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y64" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>105</v>
@@ -30093,22 +30102,22 @@
         <v>130</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F65" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G65" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I65" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K65" s="48" t="s">
         <v>644</v>
@@ -30144,21 +30153,21 @@
         <v>134</v>
       </c>
       <c r="V65" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W65" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X65" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y65" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>107</v>
@@ -30170,22 +30179,22 @@
         <v>130</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I66" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K66" s="48" t="s">
         <v>644</v>
@@ -30221,21 +30230,21 @@
         <v>134</v>
       </c>
       <c r="V66" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W66" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X66" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y66" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>109</v>
@@ -30247,22 +30256,22 @@
         <v>130</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F67" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G67" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I67" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J67" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>644</v>
@@ -30298,21 +30307,21 @@
         <v>134</v>
       </c>
       <c r="V67" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W67" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X67" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y67" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>111</v>
@@ -30324,22 +30333,22 @@
         <v>130</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F68" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I68" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K68" s="48" t="s">
         <v>644</v>
@@ -30375,21 +30384,21 @@
         <v>134</v>
       </c>
       <c r="V68" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W68" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X68" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y68" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>113</v>
@@ -30401,22 +30410,22 @@
         <v>130</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F69" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I69" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K69" s="48" t="s">
         <v>644</v>
@@ -30452,48 +30461,48 @@
         <v>134</v>
       </c>
       <c r="V69" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W69" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X69" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y69" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F70" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G70" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I70" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K70" s="48" t="s">
         <v>644</v>
@@ -30543,34 +30552,34 @@
     </row>
     <row r="71" spans="1:25" ht="69" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F71" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I71" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K71" s="48" t="s">
         <v>644</v>
@@ -30620,7 +30629,7 @@
     </row>
     <row r="72" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B72" s="36" t="s">
         <v>117</v>
@@ -30632,22 +30641,22 @@
         <v>130</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F72" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I72" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J72" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K72" s="48" t="s">
         <v>644</v>
@@ -30697,7 +30706,7 @@
     </row>
     <row r="73" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B73" s="36" t="s">
         <v>119</v>
@@ -30709,22 +30718,22 @@
         <v>130</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F73" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G73" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H73" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J73" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K73" s="48" t="s">
         <v>644</v>
@@ -30774,7 +30783,7 @@
     </row>
     <row r="74" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B74" s="36" t="s">
         <v>13</v>
@@ -30786,22 +30795,22 @@
         <v>130</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F74" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H74" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I74" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K74" s="48" t="s">
         <v>644</v>
@@ -30837,33 +30846,33 @@
         <v>134</v>
       </c>
       <c r="V74" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W74" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X74" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y74" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F75" s="53" t="s">
         <v>126</v>
@@ -30875,10 +30884,10 @@
         <v>135</v>
       </c>
       <c r="I75" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J75" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K75" s="48" t="s">
         <v>644</v>
@@ -30914,21 +30923,21 @@
         <v>134</v>
       </c>
       <c r="V75" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W75" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X75" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y75" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>42</v>
@@ -30940,22 +30949,22 @@
         <v>130</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F76" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G76" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H76" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K76" s="48" t="s">
         <v>644</v>
@@ -31005,19 +31014,19 @@
     </row>
     <row r="77" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D77" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F77" s="53" t="s">
         <v>126</v>
@@ -31029,10 +31038,10 @@
         <v>135</v>
       </c>
       <c r="I77" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K77" s="48" t="s">
         <v>644</v>
@@ -31068,21 +31077,21 @@
         <v>134</v>
       </c>
       <c r="V77" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W77" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X77" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y77" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B78" s="62" t="s">
         <v>61</v>
@@ -31094,22 +31103,22 @@
         <v>130</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F78" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G78" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H78" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I78" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J78" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K78" s="48" t="s">
         <v>644</v>
@@ -31145,21 +31154,21 @@
         <v>134</v>
       </c>
       <c r="V78" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W78" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X78" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y78" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B79" s="63" t="s">
         <v>19</v>
@@ -31171,22 +31180,22 @@
         <v>130</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F79" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H79" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I79" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J79" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K79" s="48" t="s">
         <v>644</v>
@@ -31222,21 +31231,21 @@
         <v>134</v>
       </c>
       <c r="V79" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W79" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X79" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y79" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>11</v>
@@ -31248,7 +31257,7 @@
         <v>123</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F80" s="55" t="s">
         <v>126</v>
@@ -31260,10 +31269,10 @@
         <v>135</v>
       </c>
       <c r="I80" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J80" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K80" s="48" t="s">
         <v>644</v>
@@ -31299,21 +31308,21 @@
         <v>134</v>
       </c>
       <c r="V80" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W80" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X80" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y80" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>9</v>
@@ -31325,7 +31334,7 @@
         <v>123</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>126</v>
@@ -31337,10 +31346,10 @@
         <v>135</v>
       </c>
       <c r="I81" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J81" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K81" s="48" t="s">
         <v>644</v>
@@ -31376,21 +31385,21 @@
         <v>134</v>
       </c>
       <c r="V81" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W81" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X81" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y81" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>630</v>
@@ -31402,7 +31411,7 @@
         <v>123</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>126</v>
@@ -31414,10 +31423,10 @@
         <v>135</v>
       </c>
       <c r="I82" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J82" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K82" s="48" t="s">
         <v>644</v>
@@ -31467,7 +31476,7 @@
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>20</v>
@@ -31479,7 +31488,7 @@
         <v>123</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F83" s="55" t="s">
         <v>126</v>
@@ -31491,10 +31500,10 @@
         <v>135</v>
       </c>
       <c r="I83" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J83" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K83" s="48" t="s">
         <v>644</v>
@@ -31530,21 +31539,21 @@
         <v>134</v>
       </c>
       <c r="V83" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W83" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X83" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y83" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>22</v>
@@ -31556,7 +31565,7 @@
         <v>123</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F84" s="55" t="s">
         <v>126</v>
@@ -31568,10 +31577,10 @@
         <v>135</v>
       </c>
       <c r="I84" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J84" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K84" s="48" t="s">
         <v>644</v>
@@ -31607,21 +31616,21 @@
         <v>134</v>
       </c>
       <c r="V84" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W84" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X84" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y84" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>24</v>
@@ -31633,7 +31642,7 @@
         <v>123</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>126</v>
@@ -31645,10 +31654,10 @@
         <v>135</v>
       </c>
       <c r="I85" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J85" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K85" s="48" t="s">
         <v>644</v>
@@ -31684,21 +31693,21 @@
         <v>134</v>
       </c>
       <c r="V85" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W85" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X85" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y85" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>26</v>
@@ -31710,7 +31719,7 @@
         <v>123</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>126</v>
@@ -31722,10 +31731,10 @@
         <v>135</v>
       </c>
       <c r="I86" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K86" s="48" t="s">
         <v>644</v>
@@ -31761,21 +31770,21 @@
         <v>134</v>
       </c>
       <c r="V86" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W86" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X86" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y86" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B87" s="36" t="s">
         <v>43</v>
@@ -31787,7 +31796,7 @@
         <v>123</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F87" s="53" t="s">
         <v>126</v>
@@ -31799,10 +31808,10 @@
         <v>135</v>
       </c>
       <c r="I87" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J87" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K87" s="48" t="s">
         <v>644</v>
@@ -31852,7 +31861,7 @@
     </row>
     <row r="88" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>49</v>
@@ -31864,7 +31873,7 @@
         <v>123</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F88" s="53" t="s">
         <v>126</v>
@@ -31876,11 +31885,11 @@
         <v>135</v>
       </c>
       <c r="I88" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J88" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J88" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K88" s="48" t="s">
         <v>644</v>
       </c>
@@ -31915,33 +31924,33 @@
         <v>134</v>
       </c>
       <c r="V88" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W88" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X88" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y88" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D89" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F89" s="53" t="s">
         <v>126</v>
@@ -31953,60 +31962,60 @@
         <v>135</v>
       </c>
       <c r="I89" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J89" s="47" t="s">
+        <v>706</v>
+      </c>
+      <c r="K89" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="L89" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="M89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="N89" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="O89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="P89" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q89" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="R89" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="S89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="T89" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="U89" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="V89" s="51" t="s">
         <v>707</v>
       </c>
-      <c r="K89" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="L89" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="M89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="N89" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="O89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="P89" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q89" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="R89" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="S89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="T89" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="U89" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="V89" s="51" t="s">
-        <v>708</v>
-      </c>
       <c r="W89" s="50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X89" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y89" s="50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B90" s="36" t="s">
         <v>36</v>
@@ -32018,7 +32027,7 @@
         <v>123</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F90" s="53" t="s">
         <v>127</v>
@@ -32030,11 +32039,11 @@
         <v>135</v>
       </c>
       <c r="I90" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J90" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J90" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K90" s="48" t="s">
         <v>644</v>
       </c>
@@ -32069,21 +32078,21 @@
         <v>644</v>
       </c>
       <c r="V90" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W90" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X90" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y90" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>29</v>
@@ -32095,22 +32104,22 @@
         <v>130</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F91" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H91" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I91" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J91" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K91" s="48" t="s">
         <v>644</v>
@@ -32146,21 +32155,21 @@
         <v>644</v>
       </c>
       <c r="V91" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W91" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X91" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y91" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>38</v>
@@ -32172,7 +32181,7 @@
         <v>123</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F92" s="53" t="s">
         <v>127</v>
@@ -32184,11 +32193,11 @@
         <v>135</v>
       </c>
       <c r="I92" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="J92" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="J92" s="47" t="s">
-        <v>711</v>
-      </c>
       <c r="K92" s="48" t="s">
         <v>644</v>
       </c>
@@ -32223,21 +32232,21 @@
         <v>644</v>
       </c>
       <c r="V92" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W92" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X92" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y92" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>45</v>
@@ -32249,7 +32258,7 @@
         <v>123</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F93" s="53" t="s">
         <v>126</v>
@@ -32261,10 +32270,10 @@
         <v>135</v>
       </c>
       <c r="I93" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J93" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K93" s="48" t="s">
         <v>644</v>
@@ -32314,7 +32323,7 @@
     </row>
     <row r="94" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>47</v>
@@ -32326,7 +32335,7 @@
         <v>123</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F94" s="53" t="s">
         <v>126</v>
@@ -32338,10 +32347,10 @@
         <v>135</v>
       </c>
       <c r="I94" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K94" s="48" t="s">
         <v>644</v>
@@ -32391,7 +32400,7 @@
     </row>
     <row r="95" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>121</v>
@@ -32403,7 +32412,7 @@
         <v>123</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>126</v>
@@ -32415,10 +32424,10 @@
         <v>135</v>
       </c>
       <c r="I95" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J95" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K95" s="48" t="s">
         <v>644</v>
@@ -32454,21 +32463,21 @@
         <v>134</v>
       </c>
       <c r="V95" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W95" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="X95" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y95" s="52" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>131</v>
@@ -32480,7 +32489,7 @@
         <v>123</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F96" s="54" t="s">
         <v>126</v>
@@ -32492,10 +32501,10 @@
         <v>135</v>
       </c>
       <c r="I96" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J96" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K96" s="48" t="s">
         <v>644</v>
@@ -32545,7 +32554,7 @@
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
@@ -32557,7 +32566,7 @@
         <v>123</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F97" s="54" t="s">
         <v>126</v>
@@ -32569,10 +32578,10 @@
         <v>135</v>
       </c>
       <c r="I97" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J97" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K97" s="48" t="s">
         <v>644</v>
@@ -32622,19 +32631,19 @@
     </row>
     <row r="98" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F98" s="53" t="s">
         <v>126</v>
@@ -32646,10 +32655,10 @@
         <v>135</v>
       </c>
       <c r="I98" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K98" s="48" t="s">
         <v>644</v>
@@ -32699,7 +32708,7 @@
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>143</v>
@@ -32711,7 +32720,7 @@
         <v>123</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F99" s="45" t="s">
         <v>126</v>
@@ -32723,10 +32732,10 @@
         <v>135</v>
       </c>
       <c r="I99" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J99" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K99" s="48" t="s">
         <v>644</v>
@@ -32776,7 +32785,7 @@
     </row>
     <row r="100" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>406</v>
@@ -32788,7 +32797,7 @@
         <v>123</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F100" s="45" t="s">
         <v>126</v>
@@ -32800,10 +32809,10 @@
         <v>135</v>
       </c>
       <c r="I100" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J100" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K100" s="48" t="s">
         <v>644</v>
@@ -32853,7 +32862,7 @@
     </row>
     <row r="101" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>407</v>
@@ -32865,7 +32874,7 @@
         <v>123</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F101" s="45" t="s">
         <v>126</v>
@@ -32877,10 +32886,10 @@
         <v>135</v>
       </c>
       <c r="I101" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J101" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K101" s="48" t="s">
         <v>644</v>
@@ -32930,7 +32939,7 @@
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>408</v>
@@ -32942,7 +32951,7 @@
         <v>123</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F102" s="45" t="s">
         <v>126</v>
@@ -32954,10 +32963,10 @@
         <v>135</v>
       </c>
       <c r="I102" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J102" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K102" s="48" t="s">
         <v>644</v>
@@ -33007,7 +33016,7 @@
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>409</v>
@@ -33019,7 +33028,7 @@
         <v>123</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F103" s="45" t="s">
         <v>126</v>
@@ -33031,10 +33040,10 @@
         <v>135</v>
       </c>
       <c r="I103" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J103" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K103" s="48" t="s">
         <v>644</v>
@@ -33084,7 +33093,7 @@
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>410</v>
@@ -33096,7 +33105,7 @@
         <v>123</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F104" s="45" t="s">
         <v>126</v>
@@ -33108,10 +33117,10 @@
         <v>135</v>
       </c>
       <c r="I104" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J104" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K104" s="48" t="s">
         <v>644</v>
@@ -33161,7 +33170,7 @@
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>635</v>
@@ -33173,7 +33182,7 @@
         <v>123</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F105" s="45" t="s">
         <v>126</v>
@@ -33185,10 +33194,10 @@
         <v>135</v>
       </c>
       <c r="I105" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J105" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K105" s="48" t="s">
         <v>644</v>
@@ -33238,7 +33247,7 @@
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>637</v>
@@ -33250,7 +33259,7 @@
         <v>123</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F106" s="45" t="s">
         <v>126</v>
@@ -33262,10 +33271,10 @@
         <v>135</v>
       </c>
       <c r="I106" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J106" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K106" s="48" t="s">
         <v>644</v>
@@ -33315,7 +33324,7 @@
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>639</v>
@@ -33327,7 +33336,7 @@
         <v>123</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F107" s="45" t="s">
         <v>126</v>
@@ -33339,10 +33348,10 @@
         <v>135</v>
       </c>
       <c r="I107" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J107" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K107" s="48" t="s">
         <v>644</v>
@@ -33392,7 +33401,7 @@
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B108" s="37" t="s">
         <v>641</v>
@@ -33404,7 +33413,7 @@
         <v>123</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F108" s="45" t="s">
         <v>126</v>
@@ -33416,10 +33425,10 @@
         <v>135</v>
       </c>
       <c r="I108" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J108" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K108" s="48" t="s">
         <v>644</v>
@@ -33469,7 +33478,7 @@
     </row>
     <row r="109" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B109" s="39" t="s">
         <v>671</v>
@@ -33481,7 +33490,7 @@
         <v>123</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F109" s="45" t="s">
         <v>126</v>
@@ -33493,10 +33502,10 @@
         <v>135</v>
       </c>
       <c r="I109" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J109" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K109" s="48" t="s">
         <v>644</v>
@@ -33546,7 +33555,7 @@
     </row>
     <row r="110" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B110" s="39" t="s">
         <v>661</v>
@@ -33558,7 +33567,7 @@
         <v>123</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F110" s="45" t="s">
         <v>126</v>
@@ -33570,10 +33579,10 @@
         <v>135</v>
       </c>
       <c r="I110" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J110" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K110" s="48" t="s">
         <v>644</v>
@@ -33623,7 +33632,7 @@
     </row>
     <row r="111" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B111" s="39" t="s">
         <v>667</v>
@@ -33635,7 +33644,7 @@
         <v>123</v>
       </c>
       <c r="E111" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F111" s="45" t="s">
         <v>126</v>
@@ -33647,10 +33656,10 @@
         <v>135</v>
       </c>
       <c r="I111" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J111" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K111" s="48" t="s">
         <v>644</v>
@@ -33700,7 +33709,7 @@
     </row>
     <row r="112" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B112" s="39" t="s">
         <v>668</v>
@@ -33712,7 +33721,7 @@
         <v>123</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F112" s="45" t="s">
         <v>126</v>
@@ -33724,10 +33733,10 @@
         <v>135</v>
       </c>
       <c r="I112" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J112" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K112" s="48" t="s">
         <v>644</v>
@@ -33777,7 +33786,7 @@
     </row>
     <row r="113" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B113" s="39" t="s">
         <v>669</v>
@@ -33789,7 +33798,7 @@
         <v>123</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F113" s="45" t="s">
         <v>126</v>
@@ -33801,10 +33810,10 @@
         <v>135</v>
       </c>
       <c r="I113" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J113" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K113" s="48" t="s">
         <v>644</v>
@@ -33854,7 +33863,7 @@
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>670</v>
@@ -33866,7 +33875,7 @@
         <v>123</v>
       </c>
       <c r="E114" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F114" s="45" t="s">
         <v>126</v>
@@ -33878,10 +33887,10 @@
         <v>135</v>
       </c>
       <c r="I114" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J114" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K114" s="48" t="s">
         <v>644</v>
@@ -33929,21 +33938,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="B115" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="B115" s="65" t="s">
         <v>672</v>
       </c>
-      <c r="C115" s="57" t="s">
-        <v>674</v>
+      <c r="C115" s="64" t="s">
+        <v>735</v>
       </c>
       <c r="D115" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F115" s="45" t="s">
         <v>126</v>
@@ -33955,10 +33964,10 @@
         <v>135</v>
       </c>
       <c r="I115" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J115" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K115" s="48" t="s">
         <v>644</v>
@@ -34008,19 +34017,19 @@
     </row>
     <row r="116" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A116" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>673</v>
       </c>
       <c r="C116" s="57" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D116" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E116" s="45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F116" s="45" t="s">
         <v>126</v>
@@ -34032,10 +34041,10 @@
         <v>135</v>
       </c>
       <c r="I116" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J116" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K116" s="48" t="s">
         <v>644</v>
@@ -34085,19 +34094,19 @@
     </row>
     <row r="117" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>675</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>676</v>
       </c>
       <c r="D117" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F117" s="45" t="s">
         <v>126</v>
@@ -34109,10 +34118,10 @@
         <v>135</v>
       </c>
       <c r="I117" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J117" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K117" s="48" t="s">
         <v>644</v>
@@ -34162,19 +34171,19 @@
     </row>
     <row r="118" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B118" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>677</v>
-      </c>
-      <c r="C118" s="57" t="s">
-        <v>678</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E118" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F118" s="45" t="s">
         <v>126</v>
@@ -34186,10 +34195,10 @@
         <v>135</v>
       </c>
       <c r="I118" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J118" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K118" s="48" t="s">
         <v>644</v>
@@ -34239,19 +34248,19 @@
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B119" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>679</v>
-      </c>
-      <c r="C119" s="57" t="s">
-        <v>680</v>
       </c>
       <c r="D119" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E119" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F119" s="45" t="s">
         <v>126</v>
@@ -34263,10 +34272,10 @@
         <v>135</v>
       </c>
       <c r="I119" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J119" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K119" s="48" t="s">
         <v>644</v>
@@ -34316,19 +34325,19 @@
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B120" s="57" t="s">
+        <v>680</v>
+      </c>
+      <c r="C120" s="57" t="s">
         <v>681</v>
-      </c>
-      <c r="C120" s="57" t="s">
-        <v>682</v>
       </c>
       <c r="D120" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F120" s="45" t="s">
         <v>126</v>
@@ -34340,10 +34349,10 @@
         <v>135</v>
       </c>
       <c r="I120" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J120" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K120" s="48" t="s">
         <v>644</v>
@@ -34393,19 +34402,19 @@
     </row>
     <row r="121" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D121" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F121" s="45" t="s">
         <v>126</v>
@@ -34417,10 +34426,10 @@
         <v>135</v>
       </c>
       <c r="I121" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J121" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K121" s="48" t="s">
         <v>644</v>
@@ -34470,19 +34479,19 @@
     </row>
     <row r="122" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D122" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E122" s="45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F122" s="45" t="s">
         <v>126</v>
@@ -34494,10 +34503,10 @@
         <v>135</v>
       </c>
       <c r="I122" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J122" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K122" s="48" t="s">
         <v>644</v>
@@ -34608,5 +34617,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96094B-C4DB-46E0-88CB-47774AA5E510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E48FEBD-BAB6-44B0-B16C-2CAC50AC54BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -2075,9 +2075,6 @@
     <t>het FRBRExpression van het manifest in OW moet verwijzen naar een bestaand FRBRWork van een Regelingversie in OP</t>
   </si>
   <si>
-    <t>het id van FormeleDivisie in OW moet verwijzen naar een bestaande id van een FormeleDivisie in OP</t>
-  </si>
-  <si>
     <t>TPOD2020</t>
   </si>
   <si>
@@ -2231,9 +2228,6 @@
     <t>TPOD 1.0</t>
   </si>
   <si>
-    <t>Alleen v0.98 | Als de activiteit een bepaalde regeltekstID heeft dan moet deze overeenkomen met de ID die je via de logische relaties vindt.</t>
-  </si>
-  <si>
     <t>Het tweede deel van het besluit bestaat in ieder geval uit de Regeltekst(en) en de daarbij behorende geografische informatieobjecten die de Locaties vastleggen.</t>
   </si>
   <si>
@@ -2264,9 +2258,6 @@
     <t>de grootheid waarin de hoogte wordt uitgedrukt; in het geval van hoogte dient altijd de eenheid meter gekozen te worden</t>
   </si>
   <si>
-    <t>De annotatie met de Gebiedsaanwijzing Beperkingengebied wordt alleen gebruikt voor (rechtstreeks werkende) regels (voor iedereen) die daadwerkelijk een beperkingengebied in het leven roepen en daar nadere regels over stellen, niet voor instructieregels die bepalen dat in een ander omgevingsdocument een bepaald beperkingengebied moet worden opgenomen.</t>
-  </si>
-  <si>
     <t>Het attribuut 'normwaarde' moet bestaan uit één van de twee mogelijke attributen; 'kwalitatieveWaarde' óf 'kwantitatieveWaarde' of 'waardeInRegeltekst'</t>
   </si>
   <si>
@@ -2282,7 +2273,19 @@
     <t>Er zijn niet meerdere locaties die naar 1 geometrie verwijzen (altijd 1 locatie per geometrie).</t>
   </si>
   <si>
-    <t>Als er gebruik gemaakt wordt van Leden, dan mag er niet verwezen worden naar het Artikel, maar alleen naar de leden. (Er mag in dit geval geen regeltekst-object zijn van het Artikel, maar alleen van de leden.)</t>
+    <t>Als er een Regeltekst van een Lid is gemaakt mag er geen Regeltekst meer gemaakt worden van het Artikel dat boven dit Lid hangt.</t>
+  </si>
+  <si>
+    <t>Alleen v0.98 | Als de activiteit een bepaalde regeltekstID heeft dan moet deze overeenkomen met de ID die je via de Activiteit --&gt; RegelVoorIedereen --&gt; Regeltekst vindt.</t>
+  </si>
+  <si>
+    <t>het id van Divisie in OW moet verwijzen naar een bestaande id van een Divisie in OP</t>
+  </si>
+  <si>
+    <t>Begrippen mogen niet worden genummerd.</t>
+  </si>
+  <si>
+    <t>Als het type gebiedsaanwijzing gelijk is aan beperkingengebied, dan mag deze alleen gerelateerd zijn aan een RegelVoorIedereen.</t>
   </si>
 </sst>
 </file>
@@ -25144,16 +25147,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796636CA-F9C3-46BC-98AE-E8485AAD557E}">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="73.88671875" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.21875" customWidth="1"/>
@@ -25162,10 +25165,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>685</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>686</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>1</v>
@@ -25189,146 +25192,146 @@
         <v>6</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>687</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>690</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>691</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>692</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>693</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>696</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>698</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>699</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>700</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="Y1" s="41" t="s">
         <v>701</v>
-      </c>
-      <c r="Y1" s="41" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>559</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J2" s="47" t="s">
+        <v>705</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="K2" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>707</v>
-      </c>
       <c r="W2" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X2" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y2" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>521</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>127</v>
@@ -25340,11 +25343,11 @@
         <v>135</v>
       </c>
       <c r="I3" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K3" s="48" t="s">
         <v>644</v>
       </c>
@@ -25379,21 +25382,21 @@
         <v>134</v>
       </c>
       <c r="V3" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W3" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X3" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y3" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>560</v>
@@ -25405,22 +25408,22 @@
         <v>130</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H4" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>644</v>
@@ -25456,33 +25459,33 @@
         <v>134</v>
       </c>
       <c r="V4" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X4" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>522</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>127</v>
@@ -25494,10 +25497,10 @@
         <v>135</v>
       </c>
       <c r="I5" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>709</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>710</v>
       </c>
       <c r="K5" s="48" t="s">
         <v>644</v>
@@ -25547,19 +25550,19 @@
     </row>
     <row r="6" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>523</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>127</v>
@@ -25571,10 +25574,10 @@
         <v>135</v>
       </c>
       <c r="I6" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>709</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>710</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>644</v>
@@ -25624,19 +25627,19 @@
     </row>
     <row r="7" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>524</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>127</v>
@@ -25648,11 +25651,11 @@
         <v>135</v>
       </c>
       <c r="I7" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K7" s="48" t="s">
         <v>644</v>
       </c>
@@ -25687,33 +25690,33 @@
         <v>134</v>
       </c>
       <c r="V7" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W7" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X7" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y7" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>525</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>127</v>
@@ -25725,11 +25728,11 @@
         <v>135</v>
       </c>
       <c r="I8" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K8" s="48" t="s">
         <v>644</v>
       </c>
@@ -25764,21 +25767,21 @@
         <v>134</v>
       </c>
       <c r="V8" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W8" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X8" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>569</v>
@@ -25790,22 +25793,22 @@
         <v>130</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H9" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K9" s="48" t="s">
         <v>644</v>
@@ -25841,21 +25844,21 @@
         <v>134</v>
       </c>
       <c r="V9" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W9" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X9" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>528</v>
@@ -25867,7 +25870,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>127</v>
@@ -25879,11 +25882,11 @@
         <v>135</v>
       </c>
       <c r="I10" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K10" s="48" t="s">
         <v>644</v>
       </c>
@@ -25918,21 +25921,21 @@
         <v>134</v>
       </c>
       <c r="V10" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W10" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X10" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>561</v>
@@ -25944,22 +25947,22 @@
         <v>130</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>644</v>
@@ -25995,21 +25998,21 @@
         <v>134</v>
       </c>
       <c r="V11" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W11" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X11" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y11" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>526</v>
@@ -26021,7 +26024,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>127</v>
@@ -26033,11 +26036,11 @@
         <v>135</v>
       </c>
       <c r="I12" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K12" s="48" t="s">
         <v>644</v>
       </c>
@@ -26072,21 +26075,21 @@
         <v>134</v>
       </c>
       <c r="V12" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W12" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X12" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y12" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>527</v>
@@ -26098,7 +26101,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>127</v>
@@ -26110,11 +26113,11 @@
         <v>135</v>
       </c>
       <c r="I13" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J13" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J13" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K13" s="48" t="s">
         <v>644</v>
       </c>
@@ -26149,21 +26152,21 @@
         <v>134</v>
       </c>
       <c r="V13" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W13" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X13" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y13" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>529</v>
@@ -26175,7 +26178,7 @@
         <v>123</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>127</v>
@@ -26187,11 +26190,11 @@
         <v>135</v>
       </c>
       <c r="I14" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J14" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K14" s="48" t="s">
         <v>644</v>
       </c>
@@ -26226,33 +26229,33 @@
         <v>134</v>
       </c>
       <c r="V14" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W14" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X14" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y14" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>530</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>127</v>
@@ -26264,11 +26267,11 @@
         <v>135</v>
       </c>
       <c r="I15" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J15" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J15" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K15" s="48" t="s">
         <v>644</v>
       </c>
@@ -26303,21 +26306,21 @@
         <v>134</v>
       </c>
       <c r="V15" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W15" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X15" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y15" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>570</v>
@@ -26329,22 +26332,22 @@
         <v>130</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F16" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H16" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K16" s="48" t="s">
         <v>644</v>
@@ -26380,21 +26383,21 @@
         <v>134</v>
       </c>
       <c r="V16" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W16" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X16" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y16" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>531</v>
@@ -26406,7 +26409,7 @@
         <v>123</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>127</v>
@@ -26418,11 +26421,11 @@
         <v>135</v>
       </c>
       <c r="I17" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J17" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K17" s="48" t="s">
         <v>644</v>
       </c>
@@ -26457,21 +26460,21 @@
         <v>134</v>
       </c>
       <c r="V17" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W17" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X17" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y17" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>532</v>
@@ -26483,7 +26486,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F18" s="53" t="s">
         <v>127</v>
@@ -26495,11 +26498,11 @@
         <v>135</v>
       </c>
       <c r="I18" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J18" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K18" s="48" t="s">
         <v>644</v>
       </c>
@@ -26534,21 +26537,21 @@
         <v>134</v>
       </c>
       <c r="V18" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W18" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X18" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y18" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>533</v>
@@ -26560,7 +26563,7 @@
         <v>123</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F19" s="53" t="s">
         <v>127</v>
@@ -26572,11 +26575,11 @@
         <v>135</v>
       </c>
       <c r="I19" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J19" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J19" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K19" s="48" t="s">
         <v>644</v>
       </c>
@@ -26611,21 +26614,21 @@
         <v>134</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W19" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X19" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y19" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>534</v>
@@ -26637,7 +26640,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F20" s="53" t="s">
         <v>127</v>
@@ -26649,11 +26652,11 @@
         <v>135</v>
       </c>
       <c r="I20" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K20" s="48" t="s">
         <v>644</v>
       </c>
@@ -26688,21 +26691,21 @@
         <v>134</v>
       </c>
       <c r="V20" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W20" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X20" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y20" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>535</v>
@@ -26714,7 +26717,7 @@
         <v>123</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F21" s="53" t="s">
         <v>127</v>
@@ -26726,11 +26729,11 @@
         <v>135</v>
       </c>
       <c r="I21" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J21" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K21" s="48" t="s">
         <v>644</v>
       </c>
@@ -26765,21 +26768,21 @@
         <v>134</v>
       </c>
       <c r="V21" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W21" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X21" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y21" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>562</v>
@@ -26791,22 +26794,22 @@
         <v>130</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F22" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H22" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K22" s="48" t="s">
         <v>644</v>
@@ -26842,21 +26845,21 @@
         <v>134</v>
       </c>
       <c r="V22" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W22" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y22" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>536</v>
@@ -26868,7 +26871,7 @@
         <v>123</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>127</v>
@@ -26880,11 +26883,11 @@
         <v>135</v>
       </c>
       <c r="I23" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J23" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K23" s="48" t="s">
         <v>644</v>
       </c>
@@ -26919,21 +26922,21 @@
         <v>134</v>
       </c>
       <c r="V23" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W23" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X23" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y23" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>537</v>
@@ -26945,7 +26948,7 @@
         <v>123</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F24" s="53" t="s">
         <v>127</v>
@@ -26957,11 +26960,11 @@
         <v>135</v>
       </c>
       <c r="I24" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J24" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J24" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K24" s="48" t="s">
         <v>644</v>
       </c>
@@ -26996,21 +26999,21 @@
         <v>134</v>
       </c>
       <c r="V24" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W24" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X24" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y24" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>538</v>
@@ -27022,7 +27025,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F25" s="53" t="s">
         <v>127</v>
@@ -27034,11 +27037,11 @@
         <v>135</v>
       </c>
       <c r="I25" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J25" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J25" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K25" s="48" t="s">
         <v>644</v>
       </c>
@@ -27073,21 +27076,21 @@
         <v>134</v>
       </c>
       <c r="V25" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W25" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X25" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y25" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>539</v>
@@ -27099,7 +27102,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F26" s="53" t="s">
         <v>127</v>
@@ -27111,11 +27114,11 @@
         <v>135</v>
       </c>
       <c r="I26" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J26" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J26" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K26" s="48" t="s">
         <v>644</v>
       </c>
@@ -27150,21 +27153,21 @@
         <v>134</v>
       </c>
       <c r="V26" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W26" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X26" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y26" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>563</v>
@@ -27176,22 +27179,22 @@
         <v>130</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F27" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J27" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K27" s="48" t="s">
         <v>644</v>
@@ -27227,21 +27230,21 @@
         <v>134</v>
       </c>
       <c r="V27" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W27" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X27" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y27" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>564</v>
@@ -27253,22 +27256,22 @@
         <v>130</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F28" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H28" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J28" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K28" s="48" t="s">
         <v>644</v>
@@ -27304,21 +27307,21 @@
         <v>134</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W28" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>540</v>
@@ -27330,7 +27333,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F29" s="53" t="s">
         <v>127</v>
@@ -27342,11 +27345,11 @@
         <v>135</v>
       </c>
       <c r="I29" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J29" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J29" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K29" s="48" t="s">
         <v>644</v>
       </c>
@@ -27381,21 +27384,21 @@
         <v>134</v>
       </c>
       <c r="V29" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W29" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X29" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>541</v>
@@ -27407,7 +27410,7 @@
         <v>123</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F30" s="53" t="s">
         <v>127</v>
@@ -27419,11 +27422,11 @@
         <v>135</v>
       </c>
       <c r="I30" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J30" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J30" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K30" s="48" t="s">
         <v>644</v>
       </c>
@@ -27458,21 +27461,21 @@
         <v>134</v>
       </c>
       <c r="V30" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W30" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X30" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>542</v>
@@ -27484,7 +27487,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>127</v>
@@ -27496,11 +27499,11 @@
         <v>135</v>
       </c>
       <c r="I31" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J31" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J31" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K31" s="48" t="s">
         <v>644</v>
       </c>
@@ -27535,21 +27538,21 @@
         <v>134</v>
       </c>
       <c r="V31" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W31" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X31" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>565</v>
@@ -27561,22 +27564,22 @@
         <v>130</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F32" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H32" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J32" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K32" s="48" t="s">
         <v>644</v>
@@ -27612,21 +27615,21 @@
         <v>134</v>
       </c>
       <c r="V32" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W32" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X32" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>566</v>
@@ -27638,22 +27641,22 @@
         <v>130</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F33" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H33" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J33" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K33" s="48" t="s">
         <v>644</v>
@@ -27689,21 +27692,21 @@
         <v>134</v>
       </c>
       <c r="V33" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W33" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X33" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y33" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>543</v>
@@ -27715,7 +27718,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>127</v>
@@ -27727,11 +27730,11 @@
         <v>135</v>
       </c>
       <c r="I34" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J34" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J34" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K34" s="48" t="s">
         <v>644</v>
       </c>
@@ -27766,21 +27769,21 @@
         <v>134</v>
       </c>
       <c r="V34" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W34" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X34" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y34" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>544</v>
@@ -27792,7 +27795,7 @@
         <v>123</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F35" s="53" t="s">
         <v>127</v>
@@ -27804,11 +27807,11 @@
         <v>135</v>
       </c>
       <c r="I35" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J35" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J35" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K35" s="48" t="s">
         <v>644</v>
       </c>
@@ -27843,21 +27846,21 @@
         <v>134</v>
       </c>
       <c r="V35" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W35" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X35" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y35" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>545</v>
@@ -27869,7 +27872,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>127</v>
@@ -27881,11 +27884,11 @@
         <v>135</v>
       </c>
       <c r="I36" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J36" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J36" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K36" s="48" t="s">
         <v>644</v>
       </c>
@@ -27920,21 +27923,21 @@
         <v>134</v>
       </c>
       <c r="V36" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W36" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X36" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y36" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>567</v>
@@ -27946,22 +27949,22 @@
         <v>130</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H37" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K37" s="48" t="s">
         <v>644</v>
@@ -27997,21 +28000,21 @@
         <v>134</v>
       </c>
       <c r="V37" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W37" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X37" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y37" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>568</v>
@@ -28023,22 +28026,22 @@
         <v>130</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>127</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H38" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K38" s="48" t="s">
         <v>644</v>
@@ -28074,21 +28077,21 @@
         <v>134</v>
       </c>
       <c r="V38" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W38" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X38" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y38" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>546</v>
@@ -28100,7 +28103,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>127</v>
@@ -28112,11 +28115,11 @@
         <v>135</v>
       </c>
       <c r="I39" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J39" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J39" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K39" s="48" t="s">
         <v>644</v>
       </c>
@@ -28151,21 +28154,21 @@
         <v>134</v>
       </c>
       <c r="V39" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W39" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X39" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y39" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>547</v>
@@ -28177,7 +28180,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F40" s="44" t="s">
         <v>127</v>
@@ -28189,11 +28192,11 @@
         <v>135</v>
       </c>
       <c r="I40" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J40" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J40" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K40" s="48" t="s">
         <v>644</v>
       </c>
@@ -28228,21 +28231,21 @@
         <v>644</v>
       </c>
       <c r="V40" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W40" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X40" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y40" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>548</v>
@@ -28254,7 +28257,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F41" s="44" t="s">
         <v>127</v>
@@ -28266,11 +28269,11 @@
         <v>135</v>
       </c>
       <c r="I41" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J41" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J41" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K41" s="48" t="s">
         <v>644</v>
       </c>
@@ -28305,21 +28308,21 @@
         <v>134</v>
       </c>
       <c r="V41" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W41" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X41" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y41" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>549</v>
@@ -28331,7 +28334,7 @@
         <v>123</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F42" s="53" t="s">
         <v>127</v>
@@ -28343,11 +28346,11 @@
         <v>135</v>
       </c>
       <c r="I42" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J42" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J42" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K42" s="48" t="s">
         <v>644</v>
       </c>
@@ -28382,21 +28385,21 @@
         <v>134</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W42" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X42" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y42" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>550</v>
@@ -28408,7 +28411,7 @@
         <v>123</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F43" s="53" t="s">
         <v>127</v>
@@ -28420,11 +28423,11 @@
         <v>135</v>
       </c>
       <c r="I43" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J43" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J43" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K43" s="48" t="s">
         <v>644</v>
       </c>
@@ -28459,21 +28462,21 @@
         <v>134</v>
       </c>
       <c r="V43" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W43" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X43" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y43" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>571</v>
@@ -28485,22 +28488,22 @@
         <v>130</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F44" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H44" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K44" s="48" t="s">
         <v>644</v>
@@ -28536,21 +28539,21 @@
         <v>644</v>
       </c>
       <c r="V44" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W44" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X44" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y44" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>551</v>
@@ -28562,7 +28565,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F45" s="53" t="s">
         <v>127</v>
@@ -28574,11 +28577,11 @@
         <v>135</v>
       </c>
       <c r="I45" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J45" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J45" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K45" s="48" t="s">
         <v>644</v>
       </c>
@@ -28613,21 +28616,21 @@
         <v>134</v>
       </c>
       <c r="V45" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W45" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X45" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y45" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>552</v>
@@ -28639,7 +28642,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F46" s="53" t="s">
         <v>127</v>
@@ -28651,11 +28654,11 @@
         <v>135</v>
       </c>
       <c r="I46" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J46" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J46" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K46" s="48" t="s">
         <v>644</v>
       </c>
@@ -28690,48 +28693,48 @@
         <v>134</v>
       </c>
       <c r="V46" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W46" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X46" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y46" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>572</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D47" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F47" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H47" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I47" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K47" s="48" t="s">
         <v>644</v>
@@ -28767,21 +28770,21 @@
         <v>134</v>
       </c>
       <c r="V47" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W47" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X47" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y47" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>553</v>
@@ -28793,7 +28796,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F48" s="53" t="s">
         <v>127</v>
@@ -28805,11 +28808,11 @@
         <v>135</v>
       </c>
       <c r="I48" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J48" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J48" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K48" s="48" t="s">
         <v>644</v>
       </c>
@@ -28844,21 +28847,21 @@
         <v>134</v>
       </c>
       <c r="V48" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W48" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X48" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y48" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>554</v>
@@ -28870,7 +28873,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F49" s="53" t="s">
         <v>127</v>
@@ -28882,11 +28885,11 @@
         <v>135</v>
       </c>
       <c r="I49" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J49" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J49" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K49" s="48" t="s">
         <v>644</v>
       </c>
@@ -28921,21 +28924,21 @@
         <v>134</v>
       </c>
       <c r="V49" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W49" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X49" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y49" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B50" s="28" t="s">
         <v>573</v>
@@ -28947,22 +28950,22 @@
         <v>130</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F50" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J50" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K50" s="48" t="s">
         <v>644</v>
@@ -28998,21 +29001,21 @@
         <v>644</v>
       </c>
       <c r="V50" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W50" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X50" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y50" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>555</v>
@@ -29024,7 +29027,7 @@
         <v>123</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F51" s="53" t="s">
         <v>127</v>
@@ -29036,11 +29039,11 @@
         <v>135</v>
       </c>
       <c r="I51" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J51" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J51" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K51" s="48" t="s">
         <v>644</v>
       </c>
@@ -29075,21 +29078,21 @@
         <v>134</v>
       </c>
       <c r="V51" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W51" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X51" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y51" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>574</v>
@@ -29101,22 +29104,22 @@
         <v>130</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F52" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H52" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K52" s="48" t="s">
         <v>644</v>
@@ -29152,21 +29155,21 @@
         <v>644</v>
       </c>
       <c r="V52" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W52" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X52" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y52" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>556</v>
@@ -29178,7 +29181,7 @@
         <v>123</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F53" s="53" t="s">
         <v>127</v>
@@ -29190,11 +29193,11 @@
         <v>135</v>
       </c>
       <c r="I53" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J53" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J53" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K53" s="48" t="s">
         <v>644</v>
       </c>
@@ -29229,21 +29232,21 @@
         <v>134</v>
       </c>
       <c r="V53" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W53" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X53" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y53" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>575</v>
@@ -29255,22 +29258,22 @@
         <v>130</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F54" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H54" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I54" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J54" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K54" s="48" t="s">
         <v>644</v>
@@ -29306,21 +29309,21 @@
         <v>644</v>
       </c>
       <c r="V54" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W54" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X54" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y54" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>576</v>
@@ -29332,22 +29335,22 @@
         <v>130</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F55" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H55" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J55" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K55" s="48" t="s">
         <v>644</v>
@@ -29383,21 +29386,21 @@
         <v>134</v>
       </c>
       <c r="V55" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W55" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X55" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y55" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>557</v>
@@ -29409,7 +29412,7 @@
         <v>123</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F56" s="53" t="s">
         <v>127</v>
@@ -29421,11 +29424,11 @@
         <v>135</v>
       </c>
       <c r="I56" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J56" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J56" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K56" s="48" t="s">
         <v>644</v>
       </c>
@@ -29460,33 +29463,33 @@
         <v>134</v>
       </c>
       <c r="V56" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W56" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X56" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y56" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>558</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D57" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F57" s="53" t="s">
         <v>127</v>
@@ -29498,11 +29501,11 @@
         <v>135</v>
       </c>
       <c r="I57" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J57" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J57" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K57" s="48" t="s">
         <v>644</v>
       </c>
@@ -29537,21 +29540,21 @@
         <v>134</v>
       </c>
       <c r="V57" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W57" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X57" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y57" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>519</v>
@@ -29563,7 +29566,7 @@
         <v>123</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F58" s="54" t="s">
         <v>205</v>
@@ -29575,10 +29578,10 @@
         <v>135</v>
       </c>
       <c r="I58" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K58" s="48" t="s">
         <v>644</v>
@@ -29628,7 +29631,7 @@
     </row>
     <row r="59" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>520</v>
@@ -29640,7 +29643,7 @@
         <v>123</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F59" s="54" t="s">
         <v>205</v>
@@ -29652,10 +29655,10 @@
         <v>135</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J59" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K59" s="48" t="s">
         <v>644</v>
@@ -29705,7 +29708,7 @@
     </row>
     <row r="60" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>577</v>
@@ -29717,22 +29720,22 @@
         <v>130</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H60" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J60" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K60" s="48" t="s">
         <v>644</v>
@@ -29768,21 +29771,21 @@
         <v>134</v>
       </c>
       <c r="V60" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W60" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X60" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y60" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>578</v>
@@ -29794,22 +29797,22 @@
         <v>130</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F61" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H61" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K61" s="48" t="s">
         <v>644</v>
@@ -29845,21 +29848,21 @@
         <v>134</v>
       </c>
       <c r="V61" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W61" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X61" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y61" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>99</v>
@@ -29871,22 +29874,22 @@
         <v>130</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F62" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H62" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I62" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K62" s="48" t="s">
         <v>644</v>
@@ -29922,21 +29925,21 @@
         <v>134</v>
       </c>
       <c r="V62" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W62" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X62" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y62" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>101</v>
@@ -29948,22 +29951,22 @@
         <v>130</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I63" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J63" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K63" s="48" t="s">
         <v>644</v>
@@ -29999,48 +30002,48 @@
         <v>134</v>
       </c>
       <c r="V63" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W63" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X63" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y63" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="44" t="s">
-        <v>104</v>
+      <c r="C64" s="58" t="s">
+        <v>735</v>
       </c>
       <c r="D64" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F64" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I64" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K64" s="48" t="s">
         <v>644</v>
@@ -30076,21 +30079,21 @@
         <v>134</v>
       </c>
       <c r="V64" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W64" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X64" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y64" s="52" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>105</v>
@@ -30102,22 +30105,22 @@
         <v>130</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F65" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G65" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I65" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K65" s="48" t="s">
         <v>644</v>
@@ -30153,21 +30156,21 @@
         <v>134</v>
       </c>
       <c r="V65" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W65" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X65" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y65" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>107</v>
@@ -30179,22 +30182,22 @@
         <v>130</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F66" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I66" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K66" s="48" t="s">
         <v>644</v>
@@ -30230,21 +30233,21 @@
         <v>134</v>
       </c>
       <c r="V66" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W66" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X66" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y66" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>109</v>
@@ -30256,22 +30259,22 @@
         <v>130</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F67" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G67" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I67" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J67" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K67" s="48" t="s">
         <v>644</v>
@@ -30307,21 +30310,21 @@
         <v>134</v>
       </c>
       <c r="V67" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W67" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X67" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y67" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>111</v>
@@ -30333,22 +30336,22 @@
         <v>130</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F68" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I68" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K68" s="48" t="s">
         <v>644</v>
@@ -30384,21 +30387,21 @@
         <v>134</v>
       </c>
       <c r="V68" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W68" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X68" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y68" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>113</v>
@@ -30410,22 +30413,22 @@
         <v>130</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F69" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I69" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K69" s="48" t="s">
         <v>644</v>
@@ -30461,48 +30464,48 @@
         <v>134</v>
       </c>
       <c r="V69" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W69" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X69" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y69" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F70" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G70" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I70" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K70" s="48" t="s">
         <v>644</v>
@@ -30550,36 +30553,36 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>130</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F71" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I71" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K71" s="48" t="s">
         <v>644</v>
@@ -30629,7 +30632,7 @@
     </row>
     <row r="72" spans="1:25" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B72" s="36" t="s">
         <v>117</v>
@@ -30641,22 +30644,22 @@
         <v>130</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F72" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I72" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J72" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K72" s="48" t="s">
         <v>644</v>
@@ -30706,7 +30709,7 @@
     </row>
     <row r="73" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B73" s="36" t="s">
         <v>119</v>
@@ -30718,22 +30721,22 @@
         <v>130</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F73" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G73" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H73" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I73" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J73" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K73" s="48" t="s">
         <v>644</v>
@@ -30783,7 +30786,7 @@
     </row>
     <row r="74" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B74" s="36" t="s">
         <v>13</v>
@@ -30795,22 +30798,22 @@
         <v>130</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F74" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H74" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I74" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K74" s="48" t="s">
         <v>644</v>
@@ -30846,33 +30849,33 @@
         <v>134</v>
       </c>
       <c r="V74" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W74" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X74" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y74" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D75" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F75" s="53" t="s">
         <v>126</v>
@@ -30884,10 +30887,10 @@
         <v>135</v>
       </c>
       <c r="I75" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J75" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K75" s="48" t="s">
         <v>644</v>
@@ -30923,21 +30926,21 @@
         <v>134</v>
       </c>
       <c r="V75" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W75" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X75" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y75" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>42</v>
@@ -30949,22 +30952,22 @@
         <v>130</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F76" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G76" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H76" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I76" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K76" s="48" t="s">
         <v>644</v>
@@ -31014,19 +31017,19 @@
     </row>
     <row r="77" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B77" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="44" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D77" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F77" s="53" t="s">
         <v>126</v>
@@ -31038,10 +31041,10 @@
         <v>135</v>
       </c>
       <c r="I77" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J77" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K77" s="48" t="s">
         <v>644</v>
@@ -31077,21 +31080,21 @@
         <v>134</v>
       </c>
       <c r="V77" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W77" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X77" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y77" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B78" s="62" t="s">
         <v>61</v>
@@ -31103,22 +31106,22 @@
         <v>130</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F78" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G78" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H78" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I78" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J78" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K78" s="48" t="s">
         <v>644</v>
@@ -31154,21 +31157,21 @@
         <v>134</v>
       </c>
       <c r="V78" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W78" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X78" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y78" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B79" s="63" t="s">
         <v>19</v>
@@ -31180,22 +31183,22 @@
         <v>130</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F79" s="53" t="s">
         <v>126</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H79" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I79" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J79" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K79" s="48" t="s">
         <v>644</v>
@@ -31231,21 +31234,21 @@
         <v>134</v>
       </c>
       <c r="V79" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W79" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X79" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y79" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>11</v>
@@ -31257,7 +31260,7 @@
         <v>123</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F80" s="55" t="s">
         <v>126</v>
@@ -31269,10 +31272,10 @@
         <v>135</v>
       </c>
       <c r="I80" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J80" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K80" s="48" t="s">
         <v>644</v>
@@ -31308,21 +31311,21 @@
         <v>134</v>
       </c>
       <c r="V80" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W80" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X80" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y80" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>9</v>
@@ -31334,7 +31337,7 @@
         <v>123</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>126</v>
@@ -31346,10 +31349,10 @@
         <v>135</v>
       </c>
       <c r="I81" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J81" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K81" s="48" t="s">
         <v>644</v>
@@ -31385,21 +31388,21 @@
         <v>134</v>
       </c>
       <c r="V81" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W81" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X81" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y81" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B82" s="36" t="s">
         <v>630</v>
@@ -31411,7 +31414,7 @@
         <v>123</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F82" s="45" t="s">
         <v>126</v>
@@ -31423,10 +31426,10 @@
         <v>135</v>
       </c>
       <c r="I82" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J82" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K82" s="48" t="s">
         <v>644</v>
@@ -31476,7 +31479,7 @@
     </row>
     <row r="83" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>20</v>
@@ -31488,7 +31491,7 @@
         <v>123</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F83" s="55" t="s">
         <v>126</v>
@@ -31500,10 +31503,10 @@
         <v>135</v>
       </c>
       <c r="I83" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J83" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K83" s="48" t="s">
         <v>644</v>
@@ -31539,21 +31542,21 @@
         <v>134</v>
       </c>
       <c r="V83" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W83" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X83" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y83" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>22</v>
@@ -31565,7 +31568,7 @@
         <v>123</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F84" s="55" t="s">
         <v>126</v>
@@ -31577,10 +31580,10 @@
         <v>135</v>
       </c>
       <c r="I84" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J84" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K84" s="48" t="s">
         <v>644</v>
@@ -31616,21 +31619,21 @@
         <v>134</v>
       </c>
       <c r="V84" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W84" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X84" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y84" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>24</v>
@@ -31642,7 +31645,7 @@
         <v>123</v>
       </c>
       <c r="E85" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F85" s="55" t="s">
         <v>126</v>
@@ -31654,10 +31657,10 @@
         <v>135</v>
       </c>
       <c r="I85" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J85" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K85" s="48" t="s">
         <v>644</v>
@@ -31693,21 +31696,21 @@
         <v>134</v>
       </c>
       <c r="V85" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W85" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X85" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y85" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>26</v>
@@ -31719,7 +31722,7 @@
         <v>123</v>
       </c>
       <c r="E86" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>126</v>
@@ -31731,10 +31734,10 @@
         <v>135</v>
       </c>
       <c r="I86" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J86" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K86" s="48" t="s">
         <v>644</v>
@@ -31770,21 +31773,21 @@
         <v>134</v>
       </c>
       <c r="V86" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W86" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X86" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y86" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B87" s="36" t="s">
         <v>43</v>
@@ -31796,7 +31799,7 @@
         <v>123</v>
       </c>
       <c r="E87" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F87" s="53" t="s">
         <v>126</v>
@@ -31808,10 +31811,10 @@
         <v>135</v>
       </c>
       <c r="I87" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J87" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K87" s="48" t="s">
         <v>644</v>
@@ -31861,7 +31864,7 @@
     </row>
     <row r="88" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B88" s="28" t="s">
         <v>49</v>
@@ -31873,7 +31876,7 @@
         <v>123</v>
       </c>
       <c r="E88" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F88" s="53" t="s">
         <v>126</v>
@@ -31885,11 +31888,11 @@
         <v>135</v>
       </c>
       <c r="I88" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J88" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J88" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K88" s="48" t="s">
         <v>644</v>
       </c>
@@ -31924,33 +31927,33 @@
         <v>134</v>
       </c>
       <c r="V88" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W88" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X88" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y88" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B89" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D89" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F89" s="53" t="s">
         <v>126</v>
@@ -31962,60 +31965,60 @@
         <v>135</v>
       </c>
       <c r="I89" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J89" s="47" t="s">
+        <v>705</v>
+      </c>
+      <c r="K89" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="L89" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="M89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="N89" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="O89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="P89" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q89" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="R89" s="51" t="s">
+        <v>644</v>
+      </c>
+      <c r="S89" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="T89" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="U89" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="V89" s="51" t="s">
         <v>706</v>
       </c>
-      <c r="K89" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="L89" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="M89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="N89" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="O89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="P89" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q89" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="R89" s="51" t="s">
-        <v>644</v>
-      </c>
-      <c r="S89" s="50" t="s">
-        <v>644</v>
-      </c>
-      <c r="T89" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="U89" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="V89" s="51" t="s">
-        <v>707</v>
-      </c>
       <c r="W89" s="50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X89" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y89" s="50" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B90" s="36" t="s">
         <v>36</v>
@@ -32027,7 +32030,7 @@
         <v>123</v>
       </c>
       <c r="E90" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F90" s="53" t="s">
         <v>127</v>
@@ -32039,11 +32042,11 @@
         <v>135</v>
       </c>
       <c r="I90" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J90" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J90" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K90" s="48" t="s">
         <v>644</v>
       </c>
@@ -32078,21 +32081,21 @@
         <v>644</v>
       </c>
       <c r="V90" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W90" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X90" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y90" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>29</v>
@@ -32104,22 +32107,22 @@
         <v>130</v>
       </c>
       <c r="E91" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F91" s="53" t="s">
         <v>127</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H91" s="46" t="s">
         <v>135</v>
       </c>
       <c r="I91" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J91" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K91" s="48" t="s">
         <v>644</v>
@@ -32155,21 +32158,21 @@
         <v>644</v>
       </c>
       <c r="V91" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W91" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X91" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y91" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>38</v>
@@ -32181,7 +32184,7 @@
         <v>123</v>
       </c>
       <c r="E92" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F92" s="53" t="s">
         <v>127</v>
@@ -32193,11 +32196,11 @@
         <v>135</v>
       </c>
       <c r="I92" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="J92" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="J92" s="47" t="s">
-        <v>710</v>
-      </c>
       <c r="K92" s="48" t="s">
         <v>644</v>
       </c>
@@ -32232,21 +32235,21 @@
         <v>644</v>
       </c>
       <c r="V92" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W92" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X92" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y92" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>45</v>
@@ -32258,7 +32261,7 @@
         <v>123</v>
       </c>
       <c r="E93" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F93" s="53" t="s">
         <v>126</v>
@@ -32270,10 +32273,10 @@
         <v>135</v>
       </c>
       <c r="I93" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J93" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K93" s="48" t="s">
         <v>644</v>
@@ -32323,7 +32326,7 @@
     </row>
     <row r="94" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>47</v>
@@ -32335,7 +32338,7 @@
         <v>123</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F94" s="53" t="s">
         <v>126</v>
@@ -32347,10 +32350,10 @@
         <v>135</v>
       </c>
       <c r="I94" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J94" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K94" s="48" t="s">
         <v>644</v>
@@ -32400,7 +32403,7 @@
     </row>
     <row r="95" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>121</v>
@@ -32412,7 +32415,7 @@
         <v>123</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>126</v>
@@ -32424,10 +32427,10 @@
         <v>135</v>
       </c>
       <c r="I95" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J95" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K95" s="48" t="s">
         <v>644</v>
@@ -32463,21 +32466,21 @@
         <v>134</v>
       </c>
       <c r="V95" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W95" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="X95" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y95" s="52" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>131</v>
@@ -32489,7 +32492,7 @@
         <v>123</v>
       </c>
       <c r="E96" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F96" s="54" t="s">
         <v>126</v>
@@ -32501,10 +32504,10 @@
         <v>135</v>
       </c>
       <c r="I96" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J96" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K96" s="48" t="s">
         <v>644</v>
@@ -32554,7 +32557,7 @@
     </row>
     <row r="97" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>132</v>
@@ -32566,7 +32569,7 @@
         <v>123</v>
       </c>
       <c r="E97" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F97" s="54" t="s">
         <v>126</v>
@@ -32578,10 +32581,10 @@
         <v>135</v>
       </c>
       <c r="I97" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J97" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K97" s="48" t="s">
         <v>644</v>
@@ -32631,19 +32634,19 @@
     </row>
     <row r="98" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D98" s="45" t="s">
         <v>123</v>
       </c>
       <c r="E98" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F98" s="53" t="s">
         <v>126</v>
@@ -32655,10 +32658,10 @@
         <v>135</v>
       </c>
       <c r="I98" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J98" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K98" s="48" t="s">
         <v>644</v>
@@ -32708,7 +32711,7 @@
     </row>
     <row r="99" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>143</v>
@@ -32720,7 +32723,7 @@
         <v>123</v>
       </c>
       <c r="E99" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F99" s="45" t="s">
         <v>126</v>
@@ -32732,10 +32735,10 @@
         <v>135</v>
       </c>
       <c r="I99" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J99" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K99" s="48" t="s">
         <v>644</v>
@@ -32785,7 +32788,7 @@
     </row>
     <row r="100" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>406</v>
@@ -32797,7 +32800,7 @@
         <v>123</v>
       </c>
       <c r="E100" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F100" s="45" t="s">
         <v>126</v>
@@ -32809,10 +32812,10 @@
         <v>135</v>
       </c>
       <c r="I100" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J100" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K100" s="48" t="s">
         <v>644</v>
@@ -32862,7 +32865,7 @@
     </row>
     <row r="101" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>407</v>
@@ -32874,7 +32877,7 @@
         <v>123</v>
       </c>
       <c r="E101" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F101" s="45" t="s">
         <v>126</v>
@@ -32886,10 +32889,10 @@
         <v>135</v>
       </c>
       <c r="I101" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J101" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K101" s="48" t="s">
         <v>644</v>
@@ -32939,7 +32942,7 @@
     </row>
     <row r="102" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>408</v>
@@ -32951,7 +32954,7 @@
         <v>123</v>
       </c>
       <c r="E102" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F102" s="45" t="s">
         <v>126</v>
@@ -32963,10 +32966,10 @@
         <v>135</v>
       </c>
       <c r="I102" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J102" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K102" s="48" t="s">
         <v>644</v>
@@ -33016,7 +33019,7 @@
     </row>
     <row r="103" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>409</v>
@@ -33028,7 +33031,7 @@
         <v>123</v>
       </c>
       <c r="E103" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F103" s="45" t="s">
         <v>126</v>
@@ -33040,10 +33043,10 @@
         <v>135</v>
       </c>
       <c r="I103" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J103" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K103" s="48" t="s">
         <v>644</v>
@@ -33093,7 +33096,7 @@
     </row>
     <row r="104" spans="1:25" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>410</v>
@@ -33105,7 +33108,7 @@
         <v>123</v>
       </c>
       <c r="E104" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F104" s="45" t="s">
         <v>126</v>
@@ -33117,10 +33120,10 @@
         <v>135</v>
       </c>
       <c r="I104" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J104" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K104" s="48" t="s">
         <v>644</v>
@@ -33170,7 +33173,7 @@
     </row>
     <row r="105" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B105" s="28" t="s">
         <v>635</v>
@@ -33182,7 +33185,7 @@
         <v>123</v>
       </c>
       <c r="E105" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F105" s="45" t="s">
         <v>126</v>
@@ -33194,10 +33197,10 @@
         <v>135</v>
       </c>
       <c r="I105" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J105" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K105" s="48" t="s">
         <v>644</v>
@@ -33247,7 +33250,7 @@
     </row>
     <row r="106" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>637</v>
@@ -33259,7 +33262,7 @@
         <v>123</v>
       </c>
       <c r="E106" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F106" s="45" t="s">
         <v>126</v>
@@ -33271,10 +33274,10 @@
         <v>135</v>
       </c>
       <c r="I106" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J106" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K106" s="48" t="s">
         <v>644</v>
@@ -33324,7 +33327,7 @@
     </row>
     <row r="107" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B107" s="28" t="s">
         <v>639</v>
@@ -33336,7 +33339,7 @@
         <v>123</v>
       </c>
       <c r="E107" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F107" s="45" t="s">
         <v>126</v>
@@ -33348,10 +33351,10 @@
         <v>135</v>
       </c>
       <c r="I107" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J107" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K107" s="48" t="s">
         <v>644</v>
@@ -33401,7 +33404,7 @@
     </row>
     <row r="108" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B108" s="37" t="s">
         <v>641</v>
@@ -33413,7 +33416,7 @@
         <v>123</v>
       </c>
       <c r="E108" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F108" s="45" t="s">
         <v>126</v>
@@ -33425,10 +33428,10 @@
         <v>135</v>
       </c>
       <c r="I108" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J108" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K108" s="48" t="s">
         <v>644</v>
@@ -33478,10 +33481,10 @@
     </row>
     <row r="109" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C109" s="57" t="s">
         <v>662</v>
@@ -33490,7 +33493,7 @@
         <v>123</v>
       </c>
       <c r="E109" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F109" s="45" t="s">
         <v>126</v>
@@ -33502,10 +33505,10 @@
         <v>135</v>
       </c>
       <c r="I109" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J109" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K109" s="48" t="s">
         <v>644</v>
@@ -33555,7 +33558,7 @@
     </row>
     <row r="110" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B110" s="39" t="s">
         <v>661</v>
@@ -33567,7 +33570,7 @@
         <v>123</v>
       </c>
       <c r="E110" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F110" s="45" t="s">
         <v>126</v>
@@ -33579,10 +33582,10 @@
         <v>135</v>
       </c>
       <c r="I110" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J110" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K110" s="48" t="s">
         <v>644</v>
@@ -33632,10 +33635,10 @@
     </row>
     <row r="111" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C111" s="57" t="s">
         <v>664</v>
@@ -33644,7 +33647,7 @@
         <v>123</v>
       </c>
       <c r="E111" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F111" s="45" t="s">
         <v>126</v>
@@ -33656,10 +33659,10 @@
         <v>135</v>
       </c>
       <c r="I111" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J111" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K111" s="48" t="s">
         <v>644</v>
@@ -33709,10 +33712,10 @@
     </row>
     <row r="112" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C112" s="57" t="s">
         <v>665</v>
@@ -33721,7 +33724,7 @@
         <v>123</v>
       </c>
       <c r="E112" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F112" s="45" t="s">
         <v>126</v>
@@ -33733,10 +33736,10 @@
         <v>135</v>
       </c>
       <c r="I112" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J112" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K112" s="48" t="s">
         <v>644</v>
@@ -33784,21 +33787,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>669</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>734</v>
       </c>
       <c r="D113" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E113" s="45" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="F113" s="45" t="s">
         <v>126</v>
@@ -33810,10 +33813,10 @@
         <v>135</v>
       </c>
       <c r="I113" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J113" s="47" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K113" s="48" t="s">
         <v>644</v>
@@ -33863,10 +33866,10 @@
     </row>
     <row r="114" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C114" s="57" t="s">
         <v>660</v>
@@ -33875,7 +33878,7 @@
         <v>123</v>
       </c>
       <c r="E114" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F114" s="45" t="s">
         <v>126</v>
@@ -33887,10 +33890,10 @@
         <v>135</v>
       </c>
       <c r="I114" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J114" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K114" s="48" t="s">
         <v>644</v>
@@ -33938,21 +33941,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B115" s="65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D115" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E115" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F115" s="45" t="s">
         <v>126</v>
@@ -33964,72 +33967,72 @@
         <v>135</v>
       </c>
       <c r="I115" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J115" s="47" t="s">
+        <v>711</v>
+      </c>
+      <c r="K115" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="L115" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="M115" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="N115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="O115" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="P115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S115" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="T115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="U115" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="V115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="W115" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="X115" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y115" s="52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="43" t="s">
         <v>712</v>
       </c>
-      <c r="K115" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="L115" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M115" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="N115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="O115" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="P115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q115" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="R115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="S115" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="T115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="U115" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="V115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="W115" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="X115" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y115" s="52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
-        <v>713</v>
-      </c>
       <c r="B116" s="28" t="s">
-        <v>673</v>
-      </c>
-      <c r="C116" s="57" t="s">
-        <v>718</v>
+        <v>672</v>
+      </c>
+      <c r="C116" s="64" t="s">
+        <v>733</v>
       </c>
       <c r="D116" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E116" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F116" s="45" t="s">
         <v>126</v>
@@ -34041,10 +34044,10 @@
         <v>135</v>
       </c>
       <c r="I116" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J116" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K116" s="48" t="s">
         <v>644</v>
@@ -34094,19 +34097,19 @@
     </row>
     <row r="117" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>673</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>674</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>675</v>
       </c>
       <c r="D117" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E117" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F117" s="45" t="s">
         <v>126</v>
@@ -34118,10 +34121,10 @@
         <v>135</v>
       </c>
       <c r="I117" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J117" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K117" s="48" t="s">
         <v>644</v>
@@ -34171,19 +34174,19 @@
     </row>
     <row r="118" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B118" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>676</v>
-      </c>
-      <c r="C118" s="57" t="s">
-        <v>677</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E118" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F118" s="45" t="s">
         <v>126</v>
@@ -34195,10 +34198,10 @@
         <v>135</v>
       </c>
       <c r="I118" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J118" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K118" s="48" t="s">
         <v>644</v>
@@ -34248,19 +34251,19 @@
     </row>
     <row r="119" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B119" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>678</v>
-      </c>
-      <c r="C119" s="57" t="s">
-        <v>679</v>
       </c>
       <c r="D119" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E119" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F119" s="45" t="s">
         <v>126</v>
@@ -34272,10 +34275,10 @@
         <v>135</v>
       </c>
       <c r="I119" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J119" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K119" s="48" t="s">
         <v>644</v>
@@ -34325,19 +34328,19 @@
     </row>
     <row r="120" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B120" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="C120" s="57" t="s">
         <v>680</v>
-      </c>
-      <c r="C120" s="57" t="s">
-        <v>681</v>
       </c>
       <c r="D120" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E120" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F120" s="45" t="s">
         <v>126</v>
@@ -34349,10 +34352,10 @@
         <v>135</v>
       </c>
       <c r="I120" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J120" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K120" s="48" t="s">
         <v>644</v>
@@ -34402,19 +34405,19 @@
     </row>
     <row r="121" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D121" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E121" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F121" s="45" t="s">
         <v>126</v>
@@ -34426,10 +34429,10 @@
         <v>135</v>
       </c>
       <c r="I121" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J121" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K121" s="48" t="s">
         <v>644</v>
@@ -34479,19 +34482,19 @@
     </row>
     <row r="122" spans="1:25" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D122" s="54" t="s">
         <v>123</v>
       </c>
       <c r="E122" s="45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F122" s="45" t="s">
         <v>126</v>
@@ -34503,10 +34506,10 @@
         <v>135</v>
       </c>
       <c r="I122" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J122" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K122" s="48" t="s">
         <v>644</v>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E48FEBD-BAB6-44B0-B16C-2CAC50AC54BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3936DEC-C8DE-4A0C-AC30-F1889F2AFC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -2384,7 +2384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2418,12 +2418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,7 +2586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2763,9 +2757,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25148,8 +25139,8 @@
   <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32636,7 +32627,7 @@
       <c r="A98" s="43" t="s">
         <v>712</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="28" t="s">
         <v>137</v>
       </c>
       <c r="C98" s="58" t="s">
@@ -33945,7 +33936,7 @@
       <c r="A115" s="43" t="s">
         <v>712</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="28" t="s">
         <v>671</v>
       </c>
       <c r="C115" s="64" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.10 - incl onderscheidOntwerpDefinitief.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3936DEC-C8DE-4A0C-AC30-F1889F2AFC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074EA90-4715-4A78-97E1-E8CAEE3FE937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -25138,9 +25138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796636CA-F9C3-46BC-98AE-E8485AAD557E}">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
